--- a/bestxengine-cs/ConfigurationNotes.xlsx
+++ b/bestxengine-cs/ConfigurationNotes.xlsx
@@ -11,15 +11,14 @@
     <sheet name="README-Sample data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bestxengine-cs'!$A$1:$L$214</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bestxengine-cs'!$A$1:$L$234</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="437">
   <si>
     <t>Assembly</t>
   </si>
@@ -2455,6 +2454,111 @@
   </si>
   <si>
     <t>bean</t>
+  </si>
+  <si>
+    <t>TimerProfiles.StandardLimitFile.Timeout.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit files timeout timer </t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>TargetPrice.MaxLevel</t>
+  </si>
+  <si>
+    <t>Target price max level in book</t>
+  </si>
+  <si>
+    <t>Status.MonitorToExecution.hour</t>
+  </si>
+  <si>
+    <t>If the application is started before MonitorToExecution time or after ExecutionToMonitor time, it will start in MONITOR mode.</t>
+  </si>
+  <si>
+    <t>from bestxengine-cs-4.4.0</t>
+  </si>
+  <si>
+    <t>Status.MonitorToExecution.minute</t>
+  </si>
+  <si>
+    <t>Status.ExecutionToMonitor.hour</t>
+  </si>
+  <si>
+    <t>If the application is started between MonitorToExecution time and ExecutionToMonitor time, it will start in EXECUTION mode.</t>
+  </si>
+  <si>
+    <t>Status.ExecutionToMonitor.minute</t>
+  </si>
+  <si>
+    <t>ApplicationStatus.Type</t>
+  </si>
+  <si>
+    <t>If times (MonitorToExecution/ExecutionToMonitor hour/minute) are not set, the application will start in the mode set by the ApplicationStatus.Type property.</t>
+  </si>
+  <si>
+    <t>EXECUTION</t>
+  </si>
+  <si>
+    <t>MONITOR or EXECUTION</t>
+  </si>
+  <si>
+    <t>Bloomberg.Tsox.TraderCode</t>
+  </si>
+  <si>
+    <t>BESTX-413</t>
+  </si>
+  <si>
+    <t>Trader code to connect to TSOX</t>
+  </si>
+  <si>
+    <t>Bloomberg.Tsox.InvestmentDecisionMakerID</t>
+  </si>
+  <si>
+    <t>same as trader code</t>
+  </si>
+  <si>
+    <t>Bloomberg.Tsox.InvestmentDecisionQualifier</t>
+  </si>
+  <si>
+    <t>fix value of the investment decisor qualifier (MIFID2)</t>
+  </si>
+  <si>
+    <t>Bloomberg.Tsox.ExecutionDecisionMakerID</t>
+  </si>
+  <si>
+    <t>fix value for the execution decision maker (MIFID2)</t>
+  </si>
+  <si>
+    <t>Bloomberg.Tsox.EnteringFirmCode</t>
+  </si>
+  <si>
+    <t>fix value of the entering firm code (MIFID2)</t>
+  </si>
+  <si>
+    <t>Tradeweb.TraderCode</t>
+  </si>
+  <si>
+    <t>Trader code on TW</t>
+  </si>
+  <si>
+    <t>Tradeweb.InvestmentDecisionRoleQualifier</t>
+  </si>
+  <si>
+    <t>Tradeweb.InvestmentDecisionMakerID</t>
+  </si>
+  <si>
+    <t>MarketAxess.InvestmentDecisionMakerID</t>
+  </si>
+  <si>
+    <t>MarketAxess.InvestmentDecisionQualifier</t>
+  </si>
+  <si>
+    <t>MarketAxess.InvestmentDecisionMakerIDSource</t>
+  </si>
+  <si>
+    <t>fix value of the decision maker id source (MIFID2)</t>
   </si>
 </sst>
 </file>
@@ -3027,12 +3131,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="765" topLeftCell="A208" activePane="bottomLeft"/>
+      <pane ySplit="765" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="H217" sqref="H217"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3090,1029 +3194,1000 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="19" customFormat="1" ht="75">
-      <c r="A2" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:12" s="19" customFormat="1">
+      <c r="A2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
+        <v>404</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" s="19" customFormat="1">
+      <c r="A3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" s="19" customFormat="1">
+      <c r="A4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" s="19" customFormat="1">
+      <c r="A5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1">
+      <c r="A6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" s="19" customFormat="1">
+      <c r="A7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:12" s="19" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:12" s="19" customFormat="1">
+      <c r="A9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1">
+      <c r="A10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:12" s="19" customFormat="1">
+      <c r="A11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29">
+        <v>24</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1">
+      <c r="A12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" s="19" customFormat="1">
+      <c r="A13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1">
+      <c r="A14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" s="19" customFormat="1">
+      <c r="A15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" s="19" customFormat="1">
+      <c r="A16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" s="19" customFormat="1">
+      <c r="A17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" s="19" customFormat="1">
+      <c r="A18" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" s="19" customFormat="1">
+      <c r="A19" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" s="19" customFormat="1">
+      <c r="A20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" s="19" customFormat="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" s="19" customFormat="1" ht="75">
+      <c r="A22" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C22" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D22" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E22" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F22" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G22" s="18">
         <v>600000</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H22" s="28">
         <v>600000</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I22" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J22" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K22" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="18"/>
-    </row>
-    <row r="3" spans="1:12" s="19" customFormat="1" ht="45">
-      <c r="A3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="L22" s="18"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="45">
+      <c r="A23" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D23" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E23" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F23" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="28">
+      <c r="G23" s="18"/>
+      <c r="H23" s="28">
         <v>3</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I23" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L3" s="18"/>
-    </row>
-    <row r="4" spans="1:12" s="19" customFormat="1" ht="30">
-      <c r="A4" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="L23" s="18"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D24" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E24" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="28" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I24" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J24" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" s="19" customFormat="1" ht="30">
-      <c r="A5" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C25" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D25" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E25" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="28">
+      <c r="G25" s="18"/>
+      <c r="H25" s="28">
         <v>5</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I25" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J25" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K25" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L5" s="18"/>
-    </row>
-    <row r="6" spans="1:12" s="19" customFormat="1" ht="60">
-      <c r="A6" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="60">
+      <c r="A26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C26" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="28" t="s">
+      <c r="G26" s="18"/>
+      <c r="H26" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="I6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="I26" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K26" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" s="19" customFormat="1" ht="45">
-      <c r="A7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" s="19" customFormat="1" ht="45">
+      <c r="A27" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C27" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D27" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E27" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="28">
+      <c r="G27" s="18"/>
+      <c r="H27" s="28">
         <v>24</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I27" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J27" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K27" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" s="19" customFormat="1" ht="30">
-      <c r="A8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C28" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D28" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E28" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="28" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="18" t="s">
+      <c r="I28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K28" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="45">
-      <c r="A9" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="45">
+      <c r="A29" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C29" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D29" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G29" s="18">
         <v>0</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H29" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I29" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J29" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K29" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" ht="45">
-      <c r="A10" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="27" t="s">
+      <c r="L29" s="18"/>
+    </row>
+    <row r="30" spans="1:12" ht="45">
+      <c r="A30" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C30" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D30" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E30" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F30" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="28" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I30" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J30" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K30" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" ht="75">
-      <c r="A11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
+      <c r="L30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="75">
+      <c r="A31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C31" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D31" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E31" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="20" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="I11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="18" t="s">
+      <c r="I31" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K31" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" ht="120">
-      <c r="A12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="L31" s="18"/>
+    </row>
+    <row r="32" spans="1:12" ht="120">
+      <c r="A32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C32" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D32" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F32" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G32" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H32" s="28">
         <v>24</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I32" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J32" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K32" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="30">
+      <c r="A33" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C33" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D33" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E33" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F33" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="28" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="I13" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="18" t="s">
+      <c r="I33" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K33" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="L15" s="21"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30">
-        <v>60</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30">
-        <v>300</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="75">
-      <c r="A21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="L21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="75">
-      <c r="A22" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" ht="45">
-      <c r="A23" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30">
-        <v>180000</v>
-      </c>
-      <c r="I23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:12" ht="45">
-      <c r="A24" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" ht="60">
-      <c r="A25" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30">
-        <v>15</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:12" ht="60">
-      <c r="A26" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H26" s="30">
-        <v>0</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30">
-        <v>11498243</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30">
-        <v>30000</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30">
-        <v>600000</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L30" s="21"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30">
-        <v>10000</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="29"/>
-      <c r="K32" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30">
-        <v>100</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L33" s="21"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="L34" s="21"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="E35" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G35" s="29"/>
       <c r="H35" s="30" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="29"/>
-      <c r="K35" s="22" t="s">
-        <v>321</v>
+      <c r="K35" s="31" t="s">
+        <v>320</v>
       </c>
       <c r="L35" s="21"/>
     </row>
@@ -4121,23 +4196,27 @@
         <v>10</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C36" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="E36" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G36" s="29"/>
-      <c r="H36" s="30">
-        <v>240000</v>
+      <c r="H36" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J36" s="29"/>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L36" s="21"/>
@@ -4147,24 +4226,28 @@
         <v>10</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
+      <c r="E37" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G37" s="29"/>
-      <c r="H37" s="30">
-        <v>1000000</v>
+      <c r="H37" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J37" s="29"/>
-      <c r="K37" s="21" t="s">
-        <v>321</v>
+      <c r="K37" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="L37" s="21"/>
     </row>
@@ -4173,24 +4256,28 @@
         <v>10</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G38" s="29"/>
-      <c r="H38" s="30">
-        <v>500000</v>
+      <c r="H38" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="I38" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J38" s="29"/>
-      <c r="K38" s="21" t="s">
-        <v>321</v>
+      <c r="K38" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="L38" s="21"/>
     </row>
@@ -4199,24 +4286,28 @@
         <v>10</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="E39" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G39" s="29"/>
-      <c r="H39" s="30" t="s">
-        <v>49</v>
+      <c r="H39" s="30">
+        <v>60</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J39" s="29"/>
-      <c r="K39" s="21" t="s">
-        <v>321</v>
+      <c r="K39" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="L39" s="21"/>
     </row>
@@ -4225,95 +4316,111 @@
         <v>10</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="E40" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="G40" s="29"/>
       <c r="H40" s="30">
-        <v>270000</v>
+        <v>300</v>
       </c>
       <c r="I40" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="29"/>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="75">
       <c r="A41" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="E41" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="G41" s="29"/>
-      <c r="H41" s="30">
-        <v>1800000</v>
+      <c r="H41" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="I41" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J41" s="29"/>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="32" t="s">
         <v>319</v>
       </c>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="75">
       <c r="A42" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="E42" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="G42" s="29"/>
-      <c r="H42" s="30">
-        <v>60</v>
+      <c r="H42" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="I42" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J42" s="29"/>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="45">
       <c r="A43" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="E43" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>263</v>
+      </c>
       <c r="G43" s="29"/>
       <c r="H43" s="30">
-        <v>60</v>
+        <v>180000</v>
       </c>
       <c r="I43" s="29" t="s">
         <v>22</v>
@@ -4324,25 +4431,31 @@
       </c>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="45">
       <c r="A44" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30">
-        <v>60</v>
+      <c r="E44" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="21" t="s">
@@ -4350,22 +4463,26 @@
       </c>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="60">
       <c r="A45" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
+      <c r="E45" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>267</v>
+      </c>
       <c r="G45" s="29"/>
       <c r="H45" s="30">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I45" s="29" t="s">
         <v>22</v>
@@ -4376,22 +4493,28 @@
       </c>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="60">
       <c r="A46" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="29"/>
+      <c r="E46" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>269</v>
+      </c>
       <c r="H46" s="30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>22</v>
@@ -4407,33 +4530,33 @@
         <v>10</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="D47" s="29"/>
       <c r="E47" s="30"/>
       <c r="F47" s="30"/>
       <c r="G47" s="29"/>
       <c r="H47" s="30">
-        <v>60</v>
+        <v>11498243</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="29"/>
-      <c r="K47" s="21" t="s">
-        <v>319</v>
+      <c r="K47" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" ht="30">
       <c r="A48" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>12</v>
@@ -4442,11 +4565,11 @@
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="29"/>
-      <c r="H48" s="30">
-        <v>17</v>
+      <c r="H48" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="I48" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J48" s="29"/>
       <c r="K48" s="21" t="s">
@@ -4459,7 +4582,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>12</v>
@@ -4469,7 +4592,7 @@
       <c r="F49" s="30"/>
       <c r="G49" s="29"/>
       <c r="H49" s="30">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>22</v>
@@ -4485,7 +4608,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>12</v>
@@ -4495,7 +4618,7 @@
       <c r="F50" s="30"/>
       <c r="G50" s="29"/>
       <c r="H50" s="30">
-        <v>300</v>
+        <v>600000</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>22</v>
@@ -4511,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>12</v>
@@ -4520,11 +4643,11 @@
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="29"/>
-      <c r="H51" s="30" t="s">
-        <v>62</v>
+      <c r="H51" s="30">
+        <v>10000</v>
       </c>
       <c r="I51" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J51" s="29"/>
       <c r="K51" s="21" t="s">
@@ -4537,7 +4660,7 @@
         <v>10</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>12</v>
@@ -4547,7 +4670,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="29"/>
       <c r="H52" s="30" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>14</v>
@@ -4563,7 +4686,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>12</v>
@@ -4573,7 +4696,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="29"/>
       <c r="H53" s="30">
-        <v>18000</v>
+        <v>100</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>22</v>
@@ -4589,7 +4712,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>12</v>
@@ -4599,7 +4722,7 @@
       <c r="F54" s="30"/>
       <c r="G54" s="29"/>
       <c r="H54" s="30">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>22</v>
@@ -4615,24 +4738,24 @@
         <v>10</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="30">
-        <v>60</v>
+      <c r="H55" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J55" s="29"/>
-      <c r="K55" s="21" t="s">
-        <v>319</v>
+      <c r="K55" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="L55" s="21"/>
     </row>
@@ -4641,7 +4764,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>12</v>
@@ -4651,7 +4774,7 @@
       <c r="F56" s="30"/>
       <c r="G56" s="29"/>
       <c r="H56" s="30">
-        <v>360</v>
+        <v>240000</v>
       </c>
       <c r="I56" s="29" t="s">
         <v>22</v>
@@ -4667,7 +4790,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>12</v>
@@ -4677,14 +4800,14 @@
       <c r="F57" s="30"/>
       <c r="G57" s="29"/>
       <c r="H57" s="30">
-        <v>0.4375</v>
+        <v>1000000</v>
       </c>
       <c r="I57" s="29" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L57" s="21"/>
     </row>
@@ -4693,7 +4816,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>12</v>
@@ -4703,14 +4826,14 @@
       <c r="F58" s="30"/>
       <c r="G58" s="29"/>
       <c r="H58" s="30">
-        <v>18</v>
+        <v>500000</v>
       </c>
       <c r="I58" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L58" s="21"/>
     </row>
@@ -4719,7 +4842,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>12</v>
@@ -4728,15 +4851,15 @@
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="29"/>
-      <c r="H59" s="30">
-        <v>30</v>
+      <c r="H59" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="I59" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J59" s="29"/>
       <c r="K59" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L59" s="21"/>
     </row>
@@ -4745,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>12</v>
@@ -4755,7 +4878,7 @@
       <c r="F60" s="30"/>
       <c r="G60" s="29"/>
       <c r="H60" s="30">
-        <v>22</v>
+        <v>270000</v>
       </c>
       <c r="I60" s="29" t="s">
         <v>22</v>
@@ -4771,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>12</v>
@@ -4781,7 +4904,7 @@
       <c r="F61" s="30"/>
       <c r="G61" s="29"/>
       <c r="H61" s="30">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>22</v>
@@ -4797,7 +4920,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>12</v>
@@ -4806,11 +4929,11 @@
       <c r="E62" s="30"/>
       <c r="F62" s="30"/>
       <c r="G62" s="29"/>
-      <c r="H62" s="30" t="s">
-        <v>75</v>
+      <c r="H62" s="30">
+        <v>60</v>
       </c>
       <c r="I62" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="21" t="s">
@@ -4823,7 +4946,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>12</v>
@@ -4832,11 +4955,11 @@
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="30" t="s">
-        <v>77</v>
+      <c r="H63" s="30">
+        <v>60</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="21" t="s">
@@ -4849,7 +4972,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>12</v>
@@ -4859,7 +4982,7 @@
       <c r="F64" s="30"/>
       <c r="G64" s="29"/>
       <c r="H64" s="30">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="I64" s="29" t="s">
         <v>22</v>
@@ -4875,7 +4998,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>12</v>
@@ -4885,7 +5008,7 @@
       <c r="F65" s="30"/>
       <c r="G65" s="29"/>
       <c r="H65" s="30">
-        <v>8000</v>
+        <v>2</v>
       </c>
       <c r="I65" s="29" t="s">
         <v>22</v>
@@ -4901,24 +5024,24 @@
         <v>10</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>360</v>
+        <v>56</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D66" s="29"/>
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
       <c r="G66" s="29"/>
-      <c r="H66" s="30" t="s">
-        <v>80</v>
+      <c r="H66" s="30">
+        <v>30</v>
       </c>
       <c r="I66" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J66" s="29"/>
       <c r="K66" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L66" s="21"/>
     </row>
@@ -4927,24 +5050,24 @@
         <v>10</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>359</v>
+        <v>57</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D67" s="29"/>
       <c r="E67" s="30"/>
       <c r="F67" s="30"/>
       <c r="G67" s="29"/>
-      <c r="H67" s="30" t="s">
-        <v>346</v>
+      <c r="H67" s="30">
+        <v>60</v>
       </c>
       <c r="I67" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J67" s="29"/>
       <c r="K67" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L67" s="21"/>
     </row>
@@ -4953,24 +5076,24 @@
         <v>10</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>358</v>
+        <v>58</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D68" s="29"/>
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>
       <c r="G68" s="29"/>
       <c r="H68" s="30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I68" s="29" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="J68" s="29"/>
       <c r="K68" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L68" s="21"/>
     </row>
@@ -4979,24 +5102,24 @@
         <v>10</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>357</v>
+        <v>59</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D69" s="29"/>
       <c r="E69" s="30"/>
       <c r="F69" s="30"/>
       <c r="G69" s="29"/>
-      <c r="H69" s="30" t="s">
-        <v>343</v>
+      <c r="H69" s="30">
+        <v>30</v>
       </c>
       <c r="I69" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L69" s="21"/>
     </row>
@@ -5005,7 +5128,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>354</v>
+        <v>60</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>12</v>
@@ -5015,14 +5138,14 @@
       <c r="F70" s="30"/>
       <c r="G70" s="29"/>
       <c r="H70" s="30">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="I70" s="29" t="s">
-        <v>348</v>
+        <v>22</v>
       </c>
       <c r="J70" s="29"/>
       <c r="K70" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L70" s="21"/>
     </row>
@@ -5031,7 +5154,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>355</v>
+        <v>61</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>12</v>
@@ -5041,14 +5164,14 @@
       <c r="F71" s="30"/>
       <c r="G71" s="29"/>
       <c r="H71" s="30" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L71" s="21"/>
     </row>
@@ -5057,7 +5180,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>356</v>
+        <v>63</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>12</v>
@@ -5066,72 +5189,60 @@
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="30">
-        <v>5</v>
+      <c r="H72" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L72" s="21"/>
     </row>
-    <row r="73" spans="1:12" ht="30">
+    <row r="73" spans="1:12">
       <c r="A73" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
       <c r="G73" s="29"/>
       <c r="H73" s="30">
-        <v>1994</v>
+        <v>18000</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J73" s="29"/>
       <c r="K73" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L73" s="21"/>
     </row>
-    <row r="74" spans="1:12" ht="30">
+    <row r="74" spans="1:12">
       <c r="A74" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
       <c r="G74" s="29"/>
       <c r="H74" s="30">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="I74" s="29" t="s">
         <v>22</v>
@@ -5142,28 +5253,22 @@
       </c>
       <c r="L74" s="21"/>
     </row>
-    <row r="75" spans="1:12" ht="30">
+    <row r="75" spans="1:12">
       <c r="A75" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>280</v>
+        <v>66</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
       <c r="G75" s="29"/>
       <c r="H75" s="30">
-        <v>3000</v>
+        <v>60</v>
       </c>
       <c r="I75" s="29" t="s">
         <v>22</v>
@@ -5174,28 +5279,22 @@
       </c>
       <c r="L75" s="21"/>
     </row>
-    <row r="76" spans="1:12" ht="30">
+    <row r="76" spans="1:12">
       <c r="A76" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>281</v>
+        <v>67</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
       <c r="G76" s="29"/>
       <c r="H76" s="30">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="I76" s="29" t="s">
         <v>22</v>
@@ -5211,20 +5310,20 @@
         <v>10</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D77" s="29"/>
       <c r="E77" s="30"/>
       <c r="F77" s="30"/>
       <c r="G77" s="29"/>
-      <c r="H77" s="30" t="s">
-        <v>83</v>
+      <c r="H77" s="30">
+        <v>0.4375</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="21" t="s">
@@ -5237,20 +5336,20 @@
         <v>10</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
       <c r="G78" s="29"/>
-      <c r="H78" s="30" t="s">
-        <v>85</v>
+      <c r="H78" s="30">
+        <v>18</v>
       </c>
       <c r="I78" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J78" s="29"/>
       <c r="K78" s="21" t="s">
@@ -5263,20 +5362,20 @@
         <v>10</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D79" s="29"/>
       <c r="E79" s="30"/>
       <c r="F79" s="30"/>
       <c r="G79" s="29"/>
-      <c r="H79" s="30" t="s">
-        <v>87</v>
+      <c r="H79" s="30">
+        <v>30</v>
       </c>
       <c r="I79" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J79" s="29"/>
       <c r="K79" s="21" t="s">
@@ -5284,29 +5383,29 @@
       </c>
       <c r="L79" s="21"/>
     </row>
-    <row r="80" spans="1:12" ht="30">
+    <row r="80" spans="1:12">
       <c r="A80" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
       <c r="G80" s="29"/>
-      <c r="H80" s="30" t="s">
-        <v>89</v>
+      <c r="H80" s="30">
+        <v>22</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J80" s="29"/>
       <c r="K80" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L80" s="21"/>
     </row>
@@ -5315,24 +5414,24 @@
         <v>10</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
       <c r="G81" s="29"/>
-      <c r="H81" s="30" t="s">
-        <v>91</v>
+      <c r="H81" s="30">
+        <v>0</v>
       </c>
       <c r="I81" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L81" s="21"/>
     </row>
@@ -5341,24 +5440,24 @@
         <v>10</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="29"/>
       <c r="H82" s="30" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="I82" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L82" s="21"/>
     </row>
@@ -5367,24 +5466,24 @@
         <v>10</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D83" s="29"/>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
       <c r="G83" s="29"/>
-      <c r="H83" s="30">
-        <v>8086</v>
+      <c r="H83" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L83" s="21"/>
     </row>
@@ -5393,20 +5492,20 @@
         <v>10</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D84" s="29"/>
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
       <c r="G84" s="29"/>
       <c r="H84" s="30">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I84" s="29" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="J84" s="29"/>
       <c r="K84" s="21" t="s">
@@ -5419,20 +5518,20 @@
         <v>10</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D85" s="29"/>
       <c r="E85" s="30"/>
       <c r="F85" s="30"/>
       <c r="G85" s="29"/>
       <c r="H85" s="30">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I85" s="29" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="J85" s="29"/>
       <c r="K85" s="21" t="s">
@@ -5445,24 +5544,24 @@
         <v>10</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
       <c r="G86" s="29"/>
-      <c r="H86" s="30">
-        <v>30</v>
+      <c r="H86" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="I86" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J86" s="29"/>
       <c r="K86" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L86" s="21"/>
     </row>
@@ -5471,24 +5570,24 @@
         <v>10</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
       <c r="G87" s="29"/>
-      <c r="H87" s="30">
-        <v>5</v>
+      <c r="H87" s="30" t="s">
+        <v>346</v>
       </c>
       <c r="I87" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J87" s="29"/>
       <c r="K87" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L87" s="21"/>
     </row>
@@ -5497,24 +5596,24 @@
         <v>10</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="30"/>
       <c r="F88" s="30"/>
       <c r="G88" s="29"/>
-      <c r="H88" s="30" t="s">
-        <v>100</v>
+      <c r="H88" s="30">
+        <v>24</v>
       </c>
       <c r="I88" s="29" t="s">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="J88" s="29"/>
       <c r="K88" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L88" s="21"/>
     </row>
@@ -5523,24 +5622,24 @@
         <v>10</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>102</v>
+        <v>357</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
       <c r="G89" s="29"/>
       <c r="H89" s="30" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="J89" s="29"/>
       <c r="K89" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L89" s="21"/>
     </row>
@@ -5549,24 +5648,24 @@
         <v>10</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>103</v>
+        <v>354</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="30" t="s">
-        <v>100</v>
+      <c r="H90" s="30">
+        <v>4</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="J90" s="29"/>
       <c r="K90" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L90" s="21"/>
     </row>
@@ -5575,24 +5674,24 @@
         <v>10</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>104</v>
+        <v>355</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
       <c r="G91" s="29"/>
       <c r="H91" s="30" t="s">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="I91" s="29" t="s">
-        <v>14</v>
+        <v>349</v>
       </c>
       <c r="J91" s="29"/>
       <c r="K91" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L91" s="21"/>
     </row>
@@ -5601,72 +5700,84 @@
         <v>10</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>106</v>
+        <v>356</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="30" t="s">
-        <v>100</v>
+      <c r="H92" s="30">
+        <v>5</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="J92" s="29"/>
       <c r="K92" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L92" s="21"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" ht="30">
       <c r="A93" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D93" s="29"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G93" s="29"/>
-      <c r="H93" s="30" t="s">
-        <v>108</v>
+      <c r="H93" s="30">
+        <v>1994</v>
       </c>
       <c r="I93" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J93" s="29"/>
       <c r="K93" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L93" s="21"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" ht="30">
       <c r="A94" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D94" s="29"/>
-      <c r="E94" s="30"/>
-      <c r="F94" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G94" s="29"/>
-      <c r="H94" s="30" t="s">
-        <v>110</v>
+      <c r="H94" s="30">
+        <v>10</v>
       </c>
       <c r="I94" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J94" s="29"/>
       <c r="K94" s="21" t="s">
@@ -5674,25 +5785,31 @@
       </c>
       <c r="L94" s="21"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" ht="30">
       <c r="A95" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G95" s="29"/>
-      <c r="H95" s="30" t="s">
-        <v>112</v>
+      <c r="H95" s="30">
+        <v>3000</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J95" s="29"/>
       <c r="K95" s="21" t="s">
@@ -5700,22 +5817,28 @@
       </c>
       <c r="L95" s="21"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" ht="30">
       <c r="A96" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G96" s="29"/>
       <c r="H96" s="30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I96" s="29" t="s">
         <v>22</v>
@@ -5731,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C97" s="29" t="s">
         <v>82</v>
@@ -5741,10 +5864,10 @@
       <c r="F97" s="30"/>
       <c r="G97" s="29"/>
       <c r="H97" s="30" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="I97" s="29" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="21" t="s">
@@ -5752,63 +5875,55 @@
       </c>
       <c r="L97" s="21"/>
     </row>
-    <row r="98" spans="1:12" ht="30">
+    <row r="98" spans="1:12">
       <c r="A98" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D98" s="29"/>
-      <c r="E98" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F98" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="29"/>
       <c r="H98" s="30" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="I98" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J98" s="29"/>
-      <c r="K98" s="31" t="s">
-        <v>321</v>
+      <c r="K98" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L98" s="21"/>
     </row>
-    <row r="99" spans="1:12" ht="30">
+    <row r="99" spans="1:12">
       <c r="A99" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D99" s="29"/>
-      <c r="E99" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F99" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
       <c r="G99" s="29"/>
-      <c r="H99" s="30">
-        <v>1414</v>
+      <c r="H99" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J99" s="29"/>
-      <c r="K99" s="31" t="s">
-        <v>321</v>
+      <c r="K99" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L99" s="21"/>
     </row>
@@ -5817,538 +5932,466 @@
         <v>10</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D100" s="29"/>
-      <c r="E100" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F100" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="29"/>
       <c r="H100" s="30" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="I100" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J100" s="29"/>
-      <c r="K100" s="31" t="s">
+      <c r="K100" s="21" t="s">
         <v>321</v>
       </c>
       <c r="L100" s="21"/>
     </row>
-    <row r="101" spans="1:12" ht="30">
+    <row r="101" spans="1:12">
       <c r="A101" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D101" s="29"/>
-      <c r="E101" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F101" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
       <c r="G101" s="29"/>
       <c r="H101" s="30" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="I101" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J101" s="29"/>
-      <c r="K101" s="31" t="s">
+      <c r="K101" s="21" t="s">
         <v>321</v>
       </c>
       <c r="L101" s="21"/>
     </row>
-    <row r="102" spans="1:12" ht="30">
+    <row r="102" spans="1:12">
       <c r="A102" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D102" s="29"/>
-      <c r="E102" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="30" t="b">
-        <v>1</v>
+      <c r="H102" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="I102" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J102" s="29"/>
       <c r="K102" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L102" s="21"/>
     </row>
-    <row r="103" spans="1:12" ht="30">
+    <row r="103" spans="1:12">
       <c r="A103" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D103" s="29"/>
-      <c r="E103" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F103" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
       <c r="G103" s="29"/>
       <c r="H103" s="30">
-        <v>1</v>
+        <v>8086</v>
       </c>
       <c r="I103" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J103" s="29"/>
       <c r="K103" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L103" s="21"/>
     </row>
-    <row r="104" spans="1:12" ht="45">
+    <row r="104" spans="1:12">
       <c r="A104" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F104" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="29"/>
-      <c r="H104" s="30" t="s">
-        <v>303</v>
+      <c r="H104" s="30">
+        <v>0</v>
       </c>
       <c r="I104" s="29" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="J104" s="29"/>
-      <c r="K104" s="31" t="s">
-        <v>321</v>
+      <c r="K104" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L104" s="21"/>
     </row>
-    <row r="105" spans="1:12" ht="45">
+    <row r="105" spans="1:12">
       <c r="A105" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D105" s="29"/>
-      <c r="E105" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F105" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="29"/>
       <c r="H105" s="30">
-        <v>1415</v>
+        <v>0</v>
       </c>
       <c r="I105" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="J105" s="29"/>
+      <c r="K105" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L105" s="21"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="30">
+        <v>30</v>
+      </c>
+      <c r="I106" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J105" s="29"/>
-      <c r="K105" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="L105" s="21"/>
-    </row>
-    <row r="106" spans="1:12" ht="45">
-      <c r="A106" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F106" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G106" s="29"/>
-      <c r="H106" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="I106" s="29" t="s">
-        <v>14</v>
-      </c>
       <c r="J106" s="29"/>
-      <c r="K106" s="31" t="s">
-        <v>321</v>
+      <c r="K106" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L106" s="21"/>
     </row>
-    <row r="107" spans="1:12" ht="45">
+    <row r="107" spans="1:12">
       <c r="A107" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>307</v>
+        <v>98</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D107" s="29"/>
-      <c r="E107" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F107" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="29"/>
-      <c r="H107" s="30" t="s">
-        <v>308</v>
+      <c r="H107" s="30">
+        <v>5</v>
       </c>
       <c r="I107" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J107" s="29"/>
-      <c r="K107" s="31" t="s">
-        <v>321</v>
+      <c r="K107" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L107" s="21"/>
     </row>
-    <row r="108" spans="1:12" ht="45">
+    <row r="108" spans="1:12">
       <c r="A108" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>289</v>
+        <v>99</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D108" s="29"/>
-      <c r="E108" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F108" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="29"/>
       <c r="H108" s="30" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J108" s="29"/>
-      <c r="K108" s="31" t="s">
+      <c r="K108" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L108" s="21"/>
     </row>
-    <row r="109" spans="1:12" ht="45">
+    <row r="109" spans="1:12">
       <c r="A109" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="21" t="s">
-        <v>310</v>
+      <c r="B109" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D109" s="29"/>
-      <c r="E109" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="F109" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="29"/>
       <c r="H109" s="30" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J109" s="29"/>
-      <c r="K109" s="31" t="s">
+      <c r="K109" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L109" s="21"/>
     </row>
-    <row r="110" spans="1:12" ht="30">
+    <row r="110" spans="1:12">
       <c r="A110" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>293</v>
+        <v>103</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D110" s="29"/>
-      <c r="E110" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F110" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="29"/>
       <c r="H110" s="30" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="I110" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J110" s="29"/>
-      <c r="K110" s="31" t="s">
+      <c r="K110" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L110" s="21"/>
     </row>
-    <row r="111" spans="1:12" ht="30">
+    <row r="111" spans="1:12">
       <c r="A111" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D111" s="29"/>
-      <c r="E111" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F111" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
       <c r="G111" s="29"/>
-      <c r="H111" s="30" t="b">
-        <v>0</v>
+      <c r="H111" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="I111" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J111" s="29"/>
-      <c r="K111" s="31" t="s">
+      <c r="K111" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L111" s="21"/>
     </row>
-    <row r="112" spans="1:12" ht="30">
+    <row r="112" spans="1:12">
       <c r="A112" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D112" s="29"/>
-      <c r="E112" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F112" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
       <c r="G112" s="29"/>
       <c r="H112" s="30" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I112" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J112" s="29"/>
-      <c r="K112" s="31" t="s">
+      <c r="K112" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L112" s="21"/>
     </row>
-    <row r="113" spans="1:12" ht="30">
+    <row r="113" spans="1:12">
       <c r="A113" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D113" s="29"/>
-      <c r="E113" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F113" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
       <c r="G113" s="29"/>
       <c r="H113" s="30" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I113" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J113" s="29"/>
-      <c r="K113" s="31" t="s">
+      <c r="K113" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L113" s="21"/>
     </row>
-    <row r="114" spans="1:12" ht="30">
+    <row r="114" spans="1:12">
       <c r="A114" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>297</v>
+        <v>109</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D114" s="29"/>
-      <c r="E114" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F114" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
       <c r="G114" s="29"/>
       <c r="H114" s="30" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="I114" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J114" s="29"/>
-      <c r="K114" s="31" t="s">
-        <v>321</v>
+      <c r="K114" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L114" s="21"/>
     </row>
-    <row r="115" spans="1:12" ht="30">
+    <row r="115" spans="1:12">
       <c r="A115" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>298</v>
+        <v>111</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D115" s="29"/>
-      <c r="E115" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F115" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="29"/>
       <c r="H115" s="30" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I115" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J115" s="29"/>
-      <c r="K115" s="31" t="s">
+      <c r="K115" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L115" s="21"/>
     </row>
-    <row r="116" spans="1:12" ht="30">
+    <row r="116" spans="1:12">
       <c r="A116" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D116" s="29"/>
-      <c r="E116" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F116" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="30" t="s">
-        <v>126</v>
+      <c r="H116" s="30">
+        <v>10</v>
       </c>
       <c r="I116" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J116" s="29"/>
-      <c r="K116" s="31" t="s">
+      <c r="K116" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L116" s="21"/>
     </row>
-    <row r="117" spans="1:12" ht="30">
+    <row r="117" spans="1:12">
       <c r="A117" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D117" s="29"/>
-      <c r="E117" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F117" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
       <c r="G117" s="29"/>
       <c r="H117" s="30" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J117" s="29"/>
-      <c r="K117" s="31" t="s">
-        <v>321</v>
+      <c r="K117" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L117" s="21"/>
     </row>
@@ -6357,7 +6400,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C118" s="29" t="s">
         <v>282</v>
@@ -6371,14 +6414,14 @@
       </c>
       <c r="G118" s="29"/>
       <c r="H118" s="30" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I118" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J118" s="29"/>
       <c r="K118" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L118" s="21"/>
     </row>
@@ -6387,7 +6430,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C119" s="29" t="s">
         <v>282</v>
@@ -6400,38 +6443,38 @@
         <v>272</v>
       </c>
       <c r="G119" s="29"/>
-      <c r="H119" s="30" t="b">
-        <v>0</v>
+      <c r="H119" s="30">
+        <v>1414</v>
       </c>
       <c r="I119" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J119" s="29"/>
       <c r="K119" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L119" s="21"/>
     </row>
-    <row r="120" spans="1:12" ht="45">
+    <row r="120" spans="1:12" ht="30">
       <c r="A120" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C120" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F120" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G120" s="29"/>
       <c r="H120" s="30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I120" s="29" t="s">
         <v>14</v>
@@ -6442,26 +6485,26 @@
       </c>
       <c r="L120" s="21"/>
     </row>
-    <row r="121" spans="1:12" ht="45">
+    <row r="121" spans="1:12" ht="30">
       <c r="A121" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C121" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D121" s="29"/>
       <c r="E121" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F121" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G121" s="29"/>
       <c r="H121" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I121" s="29" t="s">
         <v>14</v>
@@ -6472,113 +6515,119 @@
       </c>
       <c r="L121" s="21"/>
     </row>
-    <row r="122" spans="1:12" ht="45">
+    <row r="122" spans="1:12" ht="30">
       <c r="A122" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>128</v>
+        <v>287</v>
       </c>
       <c r="C122" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G122" s="29"/>
-      <c r="H122" s="30" t="s">
-        <v>129</v>
+      <c r="H122" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I122" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J122" s="29"/>
-      <c r="K122" s="31" t="s">
+      <c r="K122" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L122" s="21"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" ht="30">
       <c r="A123" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D123" s="29"/>
-      <c r="E123" s="30"/>
+      <c r="E123" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F123" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G123" s="29"/>
-      <c r="H123" s="30" t="s">
-        <v>24</v>
+      <c r="H123" s="30">
+        <v>1</v>
       </c>
       <c r="I123" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J123" s="29"/>
-      <c r="K123" s="31" t="s">
+      <c r="K123" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L123" s="21"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" ht="45">
       <c r="A124" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>191</v>
+        <v>302</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D124" s="29"/>
-      <c r="E124" s="30"/>
+      <c r="E124" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F124" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G124" s="29"/>
       <c r="H124" s="30" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="I124" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J124" s="29"/>
       <c r="K124" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L124" s="21"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" ht="45">
       <c r="A125" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D125" s="29"/>
-      <c r="E125" s="30"/>
+      <c r="E125" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F125" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G125" s="29"/>
-      <c r="H125" s="30" t="s">
-        <v>24</v>
+      <c r="H125" s="30">
+        <v>1415</v>
       </c>
       <c r="I125" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J125" s="29"/>
       <c r="K125" s="31" t="s">
@@ -6586,24 +6635,26 @@
       </c>
       <c r="L125" s="21"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" ht="45">
       <c r="A126" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D126" s="29"/>
-      <c r="E126" s="30"/>
+      <c r="E126" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F126" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G126" s="29"/>
       <c r="H126" s="30" t="s">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="I126" s="29" t="s">
         <v>14</v>
@@ -6614,24 +6665,26 @@
       </c>
       <c r="L126" s="21"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" ht="45">
       <c r="A127" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D127" s="29"/>
-      <c r="E127" s="30"/>
+      <c r="E127" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F127" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G127" s="29"/>
       <c r="H127" s="30" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="I127" s="29" t="s">
         <v>14</v>
@@ -6642,52 +6695,56 @@
       </c>
       <c r="L127" s="21"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" ht="45">
       <c r="A128" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D128" s="29"/>
-      <c r="E128" s="30"/>
+      <c r="E128" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F128" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G128" s="29"/>
       <c r="H128" s="30" t="s">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="I128" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J128" s="29"/>
       <c r="K128" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L128" s="21"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" ht="45">
       <c r="A129" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="29" t="s">
-        <v>196</v>
+      <c r="B129" s="21" t="s">
+        <v>310</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D129" s="29"/>
-      <c r="E129" s="30"/>
+      <c r="E129" s="30" t="s">
+        <v>312</v>
+      </c>
       <c r="F129" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G129" s="29"/>
       <c r="H129" s="30" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="I129" s="29" t="s">
         <v>14</v>
@@ -6698,24 +6755,26 @@
       </c>
       <c r="L129" s="21"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" ht="30">
       <c r="A130" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D130" s="29"/>
-      <c r="E130" s="30"/>
+      <c r="E130" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F130" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G130" s="29"/>
       <c r="H130" s="30" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="I130" s="29" t="s">
         <v>14</v>
@@ -6726,24 +6785,26 @@
       </c>
       <c r="L130" s="21"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" ht="30">
       <c r="A131" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D131" s="29"/>
-      <c r="E131" s="30"/>
+      <c r="E131" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F131" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G131" s="29"/>
-      <c r="H131" s="30" t="s">
-        <v>24</v>
+      <c r="H131" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I131" s="29" t="s">
         <v>14</v>
@@ -6754,24 +6815,26 @@
       </c>
       <c r="L131" s="21"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" ht="30">
       <c r="A132" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D132" s="29"/>
-      <c r="E132" s="30"/>
+      <c r="E132" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F132" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G132" s="29"/>
       <c r="H132" s="30" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="I132" s="29" t="s">
         <v>14</v>
@@ -6782,27 +6845,29 @@
       </c>
       <c r="L132" s="21"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" ht="30">
       <c r="A133" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B133" s="29" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D133" s="29"/>
-      <c r="E133" s="30"/>
+      <c r="E133" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F133" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G133" s="29"/>
-      <c r="H133" s="30">
-        <v>30210</v>
+      <c r="H133" s="30" t="s">
+        <v>123</v>
       </c>
       <c r="I133" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J133" s="29"/>
       <c r="K133" s="31" t="s">
@@ -6810,111 +6875,119 @@
       </c>
       <c r="L133" s="21"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" ht="30">
       <c r="A134" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>201</v>
+        <v>297</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D134" s="29"/>
-      <c r="E134" s="30"/>
+      <c r="E134" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F134" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G134" s="29"/>
-      <c r="H134" s="30">
-        <v>30211</v>
+      <c r="H134" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="I134" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J134" s="29"/>
       <c r="K134" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L134" s="21"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" ht="30">
       <c r="A135" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D135" s="29"/>
-      <c r="E135" s="30"/>
+      <c r="E135" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F135" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G135" s="29"/>
-      <c r="H135" s="30">
-        <v>30218</v>
+      <c r="H135" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="I135" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J135" s="29"/>
       <c r="K135" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L135" s="21"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" ht="30">
       <c r="A136" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D136" s="29"/>
-      <c r="E136" s="30"/>
+      <c r="E136" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F136" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G136" s="29"/>
-      <c r="H136" s="30">
-        <v>30219</v>
+      <c r="H136" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="I136" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J136" s="29"/>
       <c r="K136" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L136" s="21"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" ht="30">
       <c r="A137" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>204</v>
+        <v>300</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D137" s="29"/>
-      <c r="E137" s="30"/>
+      <c r="E137" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F137" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G137" s="29"/>
-      <c r="H137" s="30">
-        <v>40218</v>
+      <c r="H137" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="I137" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J137" s="29"/>
       <c r="K137" s="31" t="s">
@@ -6922,83 +6995,89 @@
       </c>
       <c r="L137" s="21"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" ht="30">
       <c r="A138" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D138" s="29"/>
-      <c r="E138" s="30"/>
+      <c r="E138" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F138" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G138" s="29"/>
-      <c r="H138" s="30">
-        <v>40219</v>
+      <c r="H138" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="I138" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J138" s="29"/>
       <c r="K138" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L138" s="21"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" ht="30">
       <c r="A139" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D139" s="29"/>
-      <c r="E139" s="30"/>
+      <c r="E139" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F139" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G139" s="29"/>
-      <c r="H139" s="30">
-        <v>30222</v>
+      <c r="H139" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I139" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J139" s="29"/>
       <c r="K139" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L139" s="21"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" ht="45">
       <c r="A140" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D140" s="29"/>
-      <c r="E140" s="30"/>
+      <c r="E140" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="F140" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G140" s="29"/>
-      <c r="H140" s="30">
-        <v>30223</v>
+      <c r="H140" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="I140" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J140" s="29"/>
       <c r="K140" s="31" t="s">
@@ -7006,55 +7085,59 @@
       </c>
       <c r="L140" s="21"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" ht="45">
       <c r="A141" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>208</v>
+        <v>291</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D141" s="29"/>
-      <c r="E141" s="30"/>
+      <c r="E141" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="F141" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G141" s="29"/>
-      <c r="H141" s="30">
-        <v>30227</v>
+      <c r="H141" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="I141" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J141" s="29"/>
       <c r="K141" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L141" s="21"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" ht="45">
       <c r="A142" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D142" s="29"/>
-      <c r="E142" s="30"/>
+      <c r="E142" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="F142" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G142" s="29"/>
-      <c r="H142" s="30">
-        <v>30228</v>
+      <c r="H142" s="30" t="s">
+        <v>129</v>
       </c>
       <c r="I142" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J142" s="29"/>
       <c r="K142" s="31" t="s">
@@ -7067,7 +7150,7 @@
         <v>10</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C143" s="29" t="s">
         <v>130</v>
@@ -7095,7 +7178,7 @@
         <v>10</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C144" s="29" t="s">
         <v>130</v>
@@ -7123,7 +7206,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="C145" s="29" t="s">
         <v>130</v>
@@ -7142,7 +7225,7 @@
       </c>
       <c r="J145" s="29"/>
       <c r="K145" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L145" s="21"/>
     </row>
@@ -7151,7 +7234,7 @@
         <v>10</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C146" s="29" t="s">
         <v>130</v>
@@ -7162,15 +7245,15 @@
         <v>272</v>
       </c>
       <c r="G146" s="29"/>
-      <c r="H146" s="30">
-        <v>30105</v>
+      <c r="H146" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I146" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J146" s="29"/>
       <c r="K146" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L146" s="21"/>
     </row>
@@ -7179,24 +7262,26 @@
         <v>10</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C147" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D147" s="29"/>
       <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
+      <c r="F147" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G147" s="29"/>
-      <c r="H147" s="30">
-        <v>1</v>
+      <c r="H147" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I147" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J147" s="29"/>
       <c r="K147" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L147" s="21"/>
     </row>
@@ -7205,24 +7290,26 @@
         <v>10</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C148" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D148" s="29"/>
       <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
+      <c r="F148" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G148" s="29"/>
-      <c r="H148" s="30">
-        <v>20000000</v>
+      <c r="H148" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I148" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J148" s="29"/>
       <c r="K148" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L148" s="21"/>
     </row>
@@ -7231,17 +7318,19 @@
         <v>10</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C149" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D149" s="29"/>
       <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
+      <c r="F149" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G149" s="29"/>
       <c r="H149" s="30" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I149" s="29" t="s">
         <v>14</v>
@@ -7257,20 +7346,22 @@
         <v>10</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C150" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D150" s="29"/>
       <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
+      <c r="F150" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G150" s="29"/>
-      <c r="H150" s="30">
-        <v>1</v>
+      <c r="H150" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I150" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J150" s="29"/>
       <c r="K150" s="31" t="s">
@@ -7283,20 +7374,22 @@
         <v>10</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C151" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D151" s="29"/>
       <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
+      <c r="F151" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G151" s="29"/>
-      <c r="H151" s="30">
-        <v>10</v>
+      <c r="H151" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I151" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J151" s="29"/>
       <c r="K151" s="31" t="s">
@@ -7309,20 +7402,22 @@
         <v>10</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C152" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D152" s="29"/>
       <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
+      <c r="F152" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G152" s="29"/>
-      <c r="H152" s="30">
-        <v>3</v>
+      <c r="H152" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I152" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J152" s="29"/>
       <c r="K152" s="31" t="s">
@@ -7335,17 +7430,19 @@
         <v>10</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C153" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D153" s="29"/>
       <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
+      <c r="F153" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G153" s="29"/>
       <c r="H153" s="30">
-        <v>50</v>
+        <v>30210</v>
       </c>
       <c r="I153" s="29" t="s">
         <v>22</v>
@@ -7361,17 +7458,19 @@
         <v>10</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C154" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D154" s="29"/>
       <c r="E154" s="30"/>
-      <c r="F154" s="30"/>
+      <c r="F154" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G154" s="29"/>
       <c r="H154" s="30">
-        <v>10</v>
+        <v>30211</v>
       </c>
       <c r="I154" s="29" t="s">
         <v>22</v>
@@ -7387,24 +7486,26 @@
         <v>10</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="C155" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D155" s="29"/>
       <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
+      <c r="F155" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G155" s="29"/>
       <c r="H155" s="30">
-        <v>100</v>
+        <v>30218</v>
       </c>
       <c r="I155" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J155" s="29"/>
       <c r="K155" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L155" s="21"/>
     </row>
@@ -7413,24 +7514,26 @@
         <v>10</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C156" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D156" s="29"/>
       <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
+      <c r="F156" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G156" s="29"/>
-      <c r="H156" s="30" t="s">
-        <v>132</v>
+      <c r="H156" s="30">
+        <v>30219</v>
       </c>
       <c r="I156" s="29" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J156" s="29"/>
       <c r="K156" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L156" s="21"/>
     </row>
@@ -7439,24 +7542,26 @@
         <v>10</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C157" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D157" s="29"/>
       <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
+      <c r="F157" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G157" s="29"/>
-      <c r="H157" s="30" t="s">
-        <v>132</v>
+      <c r="H157" s="30">
+        <v>40218</v>
       </c>
       <c r="I157" s="29" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J157" s="29"/>
       <c r="K157" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L157" s="21"/>
     </row>
@@ -7465,24 +7570,26 @@
         <v>10</v>
       </c>
       <c r="B158" s="29" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C158" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D158" s="29"/>
       <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
+      <c r="F158" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G158" s="29"/>
       <c r="H158" s="30">
-        <v>-1</v>
+        <v>40219</v>
       </c>
       <c r="I158" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="29"/>
       <c r="K158" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L158" s="21"/>
     </row>
@@ -7491,19 +7598,19 @@
         <v>10</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D159" s="29"/>
       <c r="E159" s="30"/>
-      <c r="F159" s="29" t="s">
+      <c r="F159" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G159" s="29"/>
       <c r="H159" s="30">
-        <v>50001</v>
+        <v>30222</v>
       </c>
       <c r="I159" s="29" t="s">
         <v>22</v>
@@ -7519,10 +7626,10 @@
         <v>10</v>
       </c>
       <c r="B160" s="29" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D160" s="29"/>
       <c r="E160" s="30"/>
@@ -7531,7 +7638,7 @@
       </c>
       <c r="G160" s="29"/>
       <c r="H160" s="30">
-        <v>50002</v>
+        <v>30223</v>
       </c>
       <c r="I160" s="29" t="s">
         <v>22</v>
@@ -7547,10 +7654,10 @@
         <v>10</v>
       </c>
       <c r="B161" s="29" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D161" s="29"/>
       <c r="E161" s="30"/>
@@ -7559,7 +7666,7 @@
       </c>
       <c r="G161" s="29"/>
       <c r="H161" s="30">
-        <v>5</v>
+        <v>30227</v>
       </c>
       <c r="I161" s="29" t="s">
         <v>22</v>
@@ -7570,25 +7677,27 @@
       </c>
       <c r="L161" s="21"/>
     </row>
-    <row r="162" spans="1:12" ht="30">
+    <row r="162" spans="1:12">
       <c r="A162" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B162" s="29" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D162" s="29"/>
       <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
+      <c r="F162" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G162" s="29"/>
-      <c r="H162" s="30" t="s">
-        <v>137</v>
+      <c r="H162" s="30">
+        <v>30228</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J162" s="29"/>
       <c r="K162" s="31" t="s">
@@ -7596,81 +7705,87 @@
       </c>
       <c r="L162" s="21"/>
     </row>
-    <row r="163" spans="1:12" ht="30">
+    <row r="163" spans="1:12">
       <c r="A163" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B163" s="29" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D163" s="29"/>
       <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
+      <c r="F163" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G163" s="29"/>
       <c r="H163" s="30" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I163" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J163" s="29"/>
       <c r="K163" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L163" s="21"/>
     </row>
-    <row r="164" spans="1:12" ht="30">
+    <row r="164" spans="1:12">
       <c r="A164" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D164" s="29"/>
       <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
+      <c r="F164" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G164" s="29"/>
       <c r="H164" s="30" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="I164" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J164" s="29"/>
       <c r="K164" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L164" s="21"/>
     </row>
-    <row r="165" spans="1:12" ht="75">
+    <row r="165" spans="1:12">
       <c r="A165" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D165" s="29"/>
       <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
+      <c r="F165" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G165" s="29"/>
       <c r="H165" s="30" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="I165" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J165" s="29"/>
       <c r="K165" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L165" s="21"/>
     </row>
@@ -7679,50 +7794,52 @@
         <v>10</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D166" s="29"/>
       <c r="E166" s="30"/>
-      <c r="F166" s="30"/>
+      <c r="F166" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G166" s="29"/>
-      <c r="H166" s="30" t="s">
-        <v>146</v>
+      <c r="H166" s="30">
+        <v>30105</v>
       </c>
       <c r="I166" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J166" s="29"/>
       <c r="K166" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L166" s="21"/>
     </row>
-    <row r="167" spans="1:12" ht="30">
+    <row r="167" spans="1:12">
       <c r="A167" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="30"/>
       <c r="F167" s="30"/>
       <c r="G167" s="29"/>
-      <c r="H167" s="30" t="s">
-        <v>148</v>
+      <c r="H167" s="30">
+        <v>1</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J167" s="29"/>
       <c r="K167" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L167" s="21"/>
     </row>
@@ -7731,23 +7848,23 @@
         <v>10</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="30"/>
       <c r="F168" s="30"/>
       <c r="G168" s="29"/>
-      <c r="H168" s="30" t="b">
-        <v>1</v>
+      <c r="H168" s="30">
+        <v>20000000</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J168" s="29"/>
-      <c r="K168" s="21" t="s">
+      <c r="K168" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L168" s="21"/>
@@ -7757,49 +7874,49 @@
         <v>10</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="30"/>
       <c r="F169" s="30"/>
       <c r="G169" s="29"/>
-      <c r="H169" s="30" t="b">
-        <v>1</v>
+      <c r="H169" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="I169" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J169" s="29"/>
-      <c r="K169" s="21" t="s">
+      <c r="K169" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L169" s="21"/>
     </row>
-    <row r="170" spans="1:12" ht="30">
+    <row r="170" spans="1:12">
       <c r="A170" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B170" s="29" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
       <c r="G170" s="29"/>
-      <c r="H170" s="30" t="s">
-        <v>152</v>
+      <c r="H170" s="30">
+        <v>1</v>
       </c>
       <c r="I170" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J170" s="29"/>
-      <c r="K170" s="21" t="s">
+      <c r="K170" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L170" s="21"/>
@@ -7809,23 +7926,23 @@
         <v>10</v>
       </c>
       <c r="B171" s="29" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D171" s="29"/>
       <c r="E171" s="30"/>
       <c r="F171" s="30"/>
       <c r="G171" s="29"/>
-      <c r="H171" s="30" t="b">
-        <v>0</v>
+      <c r="H171" s="30">
+        <v>10</v>
       </c>
       <c r="I171" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J171" s="29"/>
-      <c r="K171" s="21" t="s">
+      <c r="K171" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L171" s="21"/>
@@ -7835,23 +7952,23 @@
         <v>10</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>154</v>
+        <v>221</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="30"/>
       <c r="F172" s="30"/>
       <c r="G172" s="29"/>
-      <c r="H172" s="30" t="b">
-        <v>1</v>
+      <c r="H172" s="30">
+        <v>3</v>
       </c>
       <c r="I172" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J172" s="29"/>
-      <c r="K172" s="21" t="s">
+      <c r="K172" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L172" s="21"/>
@@ -7861,23 +7978,23 @@
         <v>10</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="30"/>
       <c r="F173" s="30"/>
       <c r="G173" s="29"/>
-      <c r="H173" s="30" t="b">
-        <v>1</v>
+      <c r="H173" s="30">
+        <v>50</v>
       </c>
       <c r="I173" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J173" s="29"/>
-      <c r="K173" s="21" t="s">
+      <c r="K173" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L173" s="21"/>
@@ -7887,23 +8004,23 @@
         <v>10</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="30"/>
       <c r="F174" s="30"/>
       <c r="G174" s="29"/>
-      <c r="H174" s="30" t="b">
-        <v>0</v>
+      <c r="H174" s="30">
+        <v>10</v>
       </c>
       <c r="I174" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J174" s="29"/>
-      <c r="K174" s="21" t="s">
+      <c r="K174" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L174" s="21"/>
@@ -7913,23 +8030,23 @@
         <v>10</v>
       </c>
       <c r="B175" s="29" t="s">
-        <v>157</v>
+        <v>224</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="30"/>
       <c r="F175" s="30"/>
       <c r="G175" s="29"/>
-      <c r="H175" s="30" t="b">
-        <v>1</v>
+      <c r="H175" s="30">
+        <v>100</v>
       </c>
       <c r="I175" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J175" s="29"/>
-      <c r="K175" s="21" t="s">
+      <c r="K175" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L175" s="21"/>
@@ -7939,23 +8056,23 @@
         <v>10</v>
       </c>
       <c r="B176" s="29" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="29"/>
       <c r="H176" s="30" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="J176" s="29"/>
-      <c r="K176" s="21" t="s">
+      <c r="K176" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L176" s="21"/>
@@ -7965,49 +8082,49 @@
         <v>10</v>
       </c>
       <c r="B177" s="29" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D177" s="29"/>
       <c r="E177" s="30"/>
       <c r="F177" s="30"/>
       <c r="G177" s="29"/>
-      <c r="H177" s="30" t="b">
-        <v>1</v>
+      <c r="H177" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="I177" s="29" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="J177" s="29"/>
-      <c r="K177" s="21" t="s">
+      <c r="K177" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L177" s="21"/>
     </row>
-    <row r="178" spans="1:12" ht="30">
+    <row r="178" spans="1:12">
       <c r="A178" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B178" s="29" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="D178" s="29"/>
       <c r="E178" s="30"/>
       <c r="F178" s="30"/>
       <c r="G178" s="29"/>
-      <c r="H178" s="30" t="s">
-        <v>163</v>
+      <c r="H178" s="30">
+        <v>-1</v>
       </c>
       <c r="I178" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J178" s="29"/>
-      <c r="K178" s="21" t="s">
+      <c r="K178" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L178" s="21"/>
@@ -8017,102 +8134,108 @@
         <v>10</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="30"/>
-      <c r="F179" s="30"/>
+      <c r="F179" s="29" t="s">
+        <v>272</v>
+      </c>
       <c r="G179" s="29"/>
       <c r="H179" s="30">
-        <v>32</v>
+        <v>50001</v>
       </c>
       <c r="I179" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J179" s="29"/>
-      <c r="K179" s="21" t="s">
-        <v>319</v>
+      <c r="K179" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L179" s="21"/>
     </row>
-    <row r="180" spans="1:12" ht="30">
+    <row r="180" spans="1:12">
       <c r="A180" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B180" s="29" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="30"/>
-      <c r="F180" s="30"/>
+      <c r="F180" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G180" s="29"/>
-      <c r="H180" s="30" t="s">
-        <v>142</v>
+      <c r="H180" s="30">
+        <v>50002</v>
       </c>
       <c r="I180" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J180" s="29"/>
-      <c r="K180" s="21" t="s">
+      <c r="K180" s="31" t="s">
         <v>321</v>
       </c>
       <c r="L180" s="21"/>
     </row>
-    <row r="181" spans="1:12" ht="75">
+    <row r="181" spans="1:12">
       <c r="A181" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>166</v>
+        <v>226</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
+      <c r="F181" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G181" s="29"/>
-      <c r="H181" s="30" t="s">
-        <v>144</v>
+      <c r="H181" s="30">
+        <v>5</v>
       </c>
       <c r="I181" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J181" s="29"/>
-      <c r="K181" s="21" t="s">
-        <v>321</v>
+      <c r="K181" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="L181" s="21"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" ht="30">
       <c r="A182" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="30"/>
       <c r="F182" s="30"/>
       <c r="G182" s="29"/>
       <c r="H182" s="30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I182" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J182" s="29"/>
-      <c r="K182" s="21" t="s">
-        <v>321</v>
+      <c r="K182" s="31" t="s">
+        <v>319</v>
       </c>
       <c r="L182" s="21"/>
     </row>
@@ -8121,102 +8244,102 @@
         <v>10</v>
       </c>
       <c r="B183" s="29" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="30"/>
       <c r="F183" s="30"/>
       <c r="G183" s="29"/>
       <c r="H183" s="30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I183" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J183" s="29"/>
-      <c r="K183" s="21" t="s">
+      <c r="K183" s="31" t="s">
         <v>321</v>
       </c>
       <c r="L183" s="21"/>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" ht="30">
       <c r="A184" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B184" s="29" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="30"/>
       <c r="F184" s="30"/>
       <c r="G184" s="29"/>
-      <c r="H184" s="30">
-        <v>35</v>
+      <c r="H184" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="I184" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J184" s="29"/>
-      <c r="K184" s="21" t="s">
-        <v>319</v>
+      <c r="K184" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L184" s="21"/>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" ht="75">
       <c r="A185" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="30"/>
       <c r="F185" s="30"/>
       <c r="G185" s="29"/>
       <c r="H185" s="30" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="I185" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J185" s="29"/>
-      <c r="K185" s="21" t="s">
-        <v>319</v>
+      <c r="K185" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L185" s="21"/>
     </row>
-    <row r="186" spans="1:12" ht="30">
+    <row r="186" spans="1:12">
       <c r="A186" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B186" s="29" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="30"/>
       <c r="F186" s="30"/>
       <c r="G186" s="29"/>
       <c r="H186" s="30" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I186" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J186" s="29"/>
-      <c r="K186" s="21" t="s">
-        <v>319</v>
+      <c r="K186" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L186" s="21"/>
     </row>
@@ -8225,24 +8348,24 @@
         <v>10</v>
       </c>
       <c r="B187" s="29" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="30"/>
       <c r="F187" s="30"/>
       <c r="G187" s="29"/>
       <c r="H187" s="30" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="I187" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J187" s="29"/>
-      <c r="K187" s="21" t="s">
-        <v>319</v>
+      <c r="K187" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L187" s="21"/>
     </row>
@@ -8251,17 +8374,17 @@
         <v>10</v>
       </c>
       <c r="B188" s="29" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="30"/>
       <c r="F188" s="30"/>
       <c r="G188" s="29"/>
-      <c r="H188" s="30" t="s">
-        <v>177</v>
+      <c r="H188" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I188" s="29" t="s">
         <v>14</v>
@@ -8277,43 +8400,43 @@
         <v>10</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="30"/>
       <c r="F189" s="30"/>
       <c r="G189" s="29"/>
-      <c r="H189" s="30" t="s">
-        <v>179</v>
+      <c r="H189" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I189" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J189" s="29"/>
       <c r="K189" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L189" s="21"/>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" ht="30">
       <c r="A190" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B190" s="29" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C190" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="30"/>
       <c r="F190" s="30"/>
       <c r="G190" s="29"/>
-      <c r="H190" s="30" t="b">
-        <v>1</v>
+      <c r="H190" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="I190" s="29" t="s">
         <v>14</v>
@@ -8329,17 +8452,17 @@
         <v>10</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C191" s="29" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="30"/>
       <c r="F191" s="30"/>
       <c r="G191" s="29"/>
-      <c r="H191" s="30" t="s">
-        <v>315</v>
+      <c r="H191" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I191" s="29" t="s">
         <v>14</v>
@@ -8355,10 +8478,10 @@
         <v>10</v>
       </c>
       <c r="B192" s="29" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="D192" s="29"/>
       <c r="E192" s="30"/>
@@ -8368,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="I192" s="29" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="J192" s="29"/>
       <c r="K192" s="21" t="s">
@@ -8376,22 +8499,22 @@
       </c>
       <c r="L192" s="21"/>
     </row>
-    <row r="193" spans="1:12" ht="30">
+    <row r="193" spans="1:12">
       <c r="A193" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B193" s="29" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="30"/>
       <c r="F193" s="30"/>
       <c r="G193" s="29"/>
-      <c r="H193" s="30" t="s">
-        <v>163</v>
+      <c r="H193" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I193" s="29" t="s">
         <v>14</v>
@@ -8407,20 +8530,20 @@
         <v>10</v>
       </c>
       <c r="B194" s="29" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="D194" s="29"/>
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
       <c r="G194" s="29"/>
-      <c r="H194" s="30">
-        <v>32</v>
+      <c r="H194" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I194" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J194" s="29"/>
       <c r="K194" s="21" t="s">
@@ -8428,22 +8551,22 @@
       </c>
       <c r="L194" s="21"/>
     </row>
-    <row r="195" spans="1:12" s="19" customFormat="1">
+    <row r="195" spans="1:12">
       <c r="A195" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B195" s="29" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="30"/>
       <c r="F195" s="30"/>
       <c r="G195" s="29"/>
-      <c r="H195" s="30" t="s">
-        <v>316</v>
+      <c r="H195" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I195" s="29" t="s">
         <v>14</v>
@@ -8454,645 +8577,1165 @@
       </c>
       <c r="L195" s="21"/>
     </row>
-    <row r="196" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="196" spans="1:12">
       <c r="A196" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B196" s="29" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="30"/>
       <c r="F196" s="30"/>
       <c r="G196" s="29"/>
       <c r="H196" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I196" s="29"/>
+        <v>160</v>
+      </c>
+      <c r="I196" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="J196" s="29"/>
       <c r="K196" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L196" s="21"/>
     </row>
-    <row r="197" spans="1:12" s="19" customFormat="1" ht="409.5">
+    <row r="197" spans="1:12">
       <c r="A197" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B197" s="30" t="s">
-        <v>184</v>
+      <c r="B197" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D197" s="29"/>
       <c r="E197" s="30"/>
       <c r="F197" s="30"/>
       <c r="G197" s="29"/>
-      <c r="H197" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I197" s="29"/>
+      <c r="H197" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I197" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="J197" s="29"/>
       <c r="K197" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L197" s="21"/>
     </row>
-    <row r="198" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="198" spans="1:12" ht="30">
       <c r="A198" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B198" s="29" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="30"/>
       <c r="F198" s="30"/>
       <c r="G198" s="29"/>
       <c r="H198" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I198" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="I198" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="J198" s="29"/>
       <c r="K198" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L198" s="21"/>
     </row>
-    <row r="199" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="199" spans="1:12">
       <c r="A199" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B199" s="29" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D199" s="29"/>
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="29"/>
-      <c r="H199" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I199" s="29"/>
+      <c r="H199" s="30">
+        <v>32</v>
+      </c>
+      <c r="I199" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J199" s="29"/>
       <c r="K199" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L199" s="21"/>
     </row>
-    <row r="200" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="200" spans="1:12" ht="30">
       <c r="A200" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D200" s="29"/>
       <c r="E200" s="30"/>
       <c r="F200" s="30"/>
       <c r="G200" s="29"/>
       <c r="H200" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I200" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="I200" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="J200" s="29"/>
       <c r="K200" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L200" s="21"/>
     </row>
-    <row r="201" spans="1:12" s="19" customFormat="1">
-      <c r="A201" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B201" s="23" t="s">
+    <row r="201" spans="1:12" ht="75">
+      <c r="A201" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C201" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D201" s="29"/>
+      <c r="E201" s="30"/>
+      <c r="F201" s="30"/>
+      <c r="G201" s="29"/>
+      <c r="H201" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I201" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201" s="29"/>
+      <c r="K201" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L201" s="21"/>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C202" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D202" s="29"/>
+      <c r="E202" s="30"/>
+      <c r="F202" s="30"/>
+      <c r="G202" s="29"/>
+      <c r="H202" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="I202" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" s="29"/>
+      <c r="K202" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L202" s="21"/>
+    </row>
+    <row r="203" spans="1:12" ht="30">
+      <c r="A203" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D203" s="29"/>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="29"/>
+      <c r="H203" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="I203" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="29"/>
+      <c r="K203" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L203" s="21"/>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D204" s="29"/>
+      <c r="E204" s="30"/>
+      <c r="F204" s="30"/>
+      <c r="G204" s="29"/>
+      <c r="H204" s="30">
+        <v>35</v>
+      </c>
+      <c r="I204" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J204" s="29"/>
+      <c r="K204" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L204" s="21"/>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D205" s="29"/>
+      <c r="E205" s="30"/>
+      <c r="F205" s="30"/>
+      <c r="G205" s="29"/>
+      <c r="H205" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="I205" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" s="29"/>
+      <c r="K205" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L205" s="21"/>
+    </row>
+    <row r="206" spans="1:12" ht="30">
+      <c r="A206" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C206" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" s="29"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="29"/>
+      <c r="H206" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I206" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206" s="29"/>
+      <c r="K206" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L206" s="21"/>
+    </row>
+    <row r="207" spans="1:12" ht="30">
+      <c r="A207" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C207" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D207" s="29"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="29"/>
+      <c r="H207" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I207" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" s="29"/>
+      <c r="K207" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L207" s="21"/>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C208" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D208" s="29"/>
+      <c r="E208" s="30"/>
+      <c r="F208" s="30"/>
+      <c r="G208" s="29"/>
+      <c r="H208" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I208" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" s="29"/>
+      <c r="K208" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L208" s="21"/>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C209" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D209" s="29"/>
+      <c r="E209" s="30"/>
+      <c r="F209" s="30"/>
+      <c r="G209" s="29"/>
+      <c r="H209" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="I209" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" s="29"/>
+      <c r="K209" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="L209" s="21"/>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C210" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D210" s="29"/>
+      <c r="E210" s="30"/>
+      <c r="F210" s="30"/>
+      <c r="G210" s="29"/>
+      <c r="H210" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I210" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" s="29"/>
+      <c r="K210" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L210" s="21"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C211" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D211" s="29"/>
+      <c r="E211" s="30"/>
+      <c r="F211" s="30"/>
+      <c r="G211" s="29"/>
+      <c r="H211" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="I211" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="29"/>
+      <c r="K211" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L211" s="21"/>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C212" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D212" s="29"/>
+      <c r="E212" s="30"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="29"/>
+      <c r="H212" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I212" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="J212" s="29"/>
+      <c r="K212" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L212" s="21"/>
+    </row>
+    <row r="213" spans="1:12" ht="30">
+      <c r="A213" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C213" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D213" s="29"/>
+      <c r="E213" s="30"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="29"/>
+      <c r="H213" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="I213" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" s="29"/>
+      <c r="K213" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L213" s="21"/>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C214" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D214" s="29"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="29"/>
+      <c r="H214" s="30">
+        <v>32</v>
+      </c>
+      <c r="I214" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J214" s="29"/>
+      <c r="K214" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L214" s="21"/>
+    </row>
+    <row r="215" spans="1:12" s="19" customFormat="1">
+      <c r="A215" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C215" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D215" s="29"/>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="29"/>
+      <c r="H215" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="I215" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" s="29"/>
+      <c r="K215" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L215" s="21"/>
+    </row>
+    <row r="216" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A216" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C216" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D216" s="29"/>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="29"/>
+      <c r="H216" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I216" s="29"/>
+      <c r="J216" s="29"/>
+      <c r="K216" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L216" s="21"/>
+    </row>
+    <row r="217" spans="1:12" s="19" customFormat="1" ht="409.5">
+      <c r="A217" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C217" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D217" s="29"/>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="29"/>
+      <c r="H217" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I217" s="29"/>
+      <c r="J217" s="29"/>
+      <c r="K217" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L217" s="21"/>
+    </row>
+    <row r="218" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A218" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C218" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D218" s="29"/>
+      <c r="E218" s="30"/>
+      <c r="F218" s="30"/>
+      <c r="G218" s="29"/>
+      <c r="H218" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I218" s="29"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L218" s="21"/>
+    </row>
+    <row r="219" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A219" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C219" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D219" s="29"/>
+      <c r="E219" s="30"/>
+      <c r="F219" s="30"/>
+      <c r="G219" s="29"/>
+      <c r="H219" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L219" s="21"/>
+    </row>
+    <row r="220" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A220" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C220" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D220" s="29"/>
+      <c r="E220" s="30"/>
+      <c r="F220" s="30"/>
+      <c r="G220" s="29"/>
+      <c r="H220" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I220" s="29"/>
+      <c r="J220" s="29"/>
+      <c r="K220" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L220" s="21"/>
+    </row>
+    <row r="221" spans="1:12" s="19" customFormat="1">
+      <c r="A221" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C201" s="23" t="s">
+      <c r="C221" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D201" s="23" t="s">
+      <c r="D221" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E201" s="24"/>
-      <c r="F201" s="24" t="s">
+      <c r="E221" s="24"/>
+      <c r="F221" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G201" s="23"/>
-      <c r="H201" s="24" t="s">
+      <c r="G221" s="23"/>
+      <c r="H221" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="I201" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23" t="s">
+      <c r="I221" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" s="23"/>
+      <c r="K221" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="L201" s="23"/>
-    </row>
-    <row r="202" spans="1:12" s="19" customFormat="1">
-      <c r="A202" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B202" s="23" t="s">
+      <c r="L221" s="23"/>
+    </row>
+    <row r="222" spans="1:12" s="19" customFormat="1">
+      <c r="A222" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="C202" s="33" t="s">
+      <c r="C222" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D202" s="23" t="s">
+      <c r="D222" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E202" s="24"/>
-      <c r="F202" s="24" t="s">
+      <c r="E222" s="24"/>
+      <c r="F222" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G202" s="23"/>
-      <c r="H202" s="24">
+      <c r="G222" s="23"/>
+      <c r="H222" s="24">
         <v>5</v>
       </c>
-      <c r="I202" s="33" t="s">
+      <c r="I222" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J202" s="23"/>
-      <c r="K202" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L202" s="23"/>
-    </row>
-    <row r="203" spans="1:12" s="19" customFormat="1">
-      <c r="A203" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B203" s="23" t="s">
+      <c r="J222" s="23"/>
+      <c r="K222" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L222" s="23"/>
+    </row>
+    <row r="223" spans="1:12" s="19" customFormat="1">
+      <c r="A223" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C203" s="33" t="s">
+      <c r="C223" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D203" s="23" t="s">
+      <c r="D223" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E203" s="24"/>
-      <c r="F203" s="24" t="s">
+      <c r="E223" s="24"/>
+      <c r="F223" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G203" s="23"/>
-      <c r="H203" s="24">
+      <c r="G223" s="23"/>
+      <c r="H223" s="24">
         <v>60</v>
       </c>
-      <c r="I203" s="33" t="s">
+      <c r="I223" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J203" s="23"/>
-      <c r="K203" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L203" s="23"/>
-    </row>
-    <row r="204" spans="1:12" s="19" customFormat="1">
-      <c r="A204" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B204" s="23" t="s">
+      <c r="J223" s="23"/>
+      <c r="K223" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L223" s="23"/>
+    </row>
+    <row r="224" spans="1:12" s="19" customFormat="1">
+      <c r="A224" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="C204" s="33" t="s">
+      <c r="C224" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D204" s="23" t="s">
+      <c r="D224" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E204" s="24"/>
-      <c r="F204" s="24" t="s">
+      <c r="E224" s="24"/>
+      <c r="F224" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G204" s="23"/>
-      <c r="H204" s="24">
+      <c r="G224" s="23"/>
+      <c r="H224" s="24">
         <v>5</v>
       </c>
-      <c r="I204" s="33" t="s">
+      <c r="I224" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J204" s="23"/>
-      <c r="K204" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L204" s="23"/>
-    </row>
-    <row r="205" spans="1:12">
-      <c r="A205" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="23" t="s">
+      <c r="J224" s="23"/>
+      <c r="K224" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L224" s="23"/>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C205" s="33" t="s">
+      <c r="C225" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D205" s="23"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="24" t="s">
+      <c r="D225" s="23"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G205" s="23"/>
-      <c r="H205" s="24">
+      <c r="G225" s="23"/>
+      <c r="H225" s="24">
         <v>1994</v>
       </c>
-      <c r="I205" s="33" t="s">
+      <c r="I225" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J205" s="23"/>
-      <c r="K205" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L205" s="23"/>
-    </row>
-    <row r="206" spans="1:12">
-      <c r="A206" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B206" s="23" t="s">
+      <c r="J225" s="23"/>
+      <c r="K225" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L225" s="23"/>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="C206" s="33" t="s">
+      <c r="C226" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D206" s="23"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24" t="s">
+      <c r="D226" s="23"/>
+      <c r="E226" s="24"/>
+      <c r="F226" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G206" s="23"/>
-      <c r="H206" s="24">
-        <v>10</v>
-      </c>
-      <c r="I206" s="33" t="s">
+      <c r="G226" s="23"/>
+      <c r="H226" s="24">
+        <v>10</v>
+      </c>
+      <c r="I226" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J206" s="23"/>
-      <c r="K206" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L206" s="23"/>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="A207" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B207" s="23" t="s">
+      <c r="J226" s="23"/>
+      <c r="K226" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L226" s="23"/>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="C207" s="33" t="s">
+      <c r="C227" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D207" s="23"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="24" t="s">
+      <c r="D227" s="23"/>
+      <c r="E227" s="24"/>
+      <c r="F227" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G207" s="23"/>
-      <c r="H207" s="24">
+      <c r="G227" s="23"/>
+      <c r="H227" s="24">
         <v>5</v>
       </c>
-      <c r="I207" s="33" t="s">
+      <c r="I227" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J207" s="23"/>
-      <c r="K207" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L207" s="23"/>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="A208" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B208" s="23" t="s">
+      <c r="J227" s="23"/>
+      <c r="K227" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L227" s="23"/>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="C208" s="33" t="s">
+      <c r="C228" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D208" s="23"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="24" t="s">
+      <c r="D228" s="23"/>
+      <c r="E228" s="24"/>
+      <c r="F228" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G208" s="23"/>
-      <c r="H208" s="24">
+      <c r="G228" s="23"/>
+      <c r="H228" s="24">
         <v>3</v>
       </c>
-      <c r="I208" s="33" t="s">
+      <c r="I228" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J208" s="23"/>
-      <c r="K208" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L208" s="23"/>
-    </row>
-    <row r="209" spans="1:12">
-      <c r="A209" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B209" s="23" t="s">
+      <c r="J228" s="23"/>
+      <c r="K228" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L228" s="23"/>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C209" s="33" t="s">
+      <c r="C229" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D209" s="23"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="24" t="s">
+      <c r="D229" s="23"/>
+      <c r="E229" s="24"/>
+      <c r="F229" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G209" s="23"/>
-      <c r="H209" s="24">
+      <c r="G229" s="23"/>
+      <c r="H229" s="24">
         <v>6</v>
       </c>
-      <c r="I209" s="33" t="s">
+      <c r="I229" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J209" s="23"/>
-      <c r="K209" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L209" s="23"/>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="A210" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B210" s="23" t="s">
+      <c r="J229" s="23"/>
+      <c r="K229" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L229" s="23"/>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B230" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="C210" s="33" t="s">
+      <c r="C230" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D210" s="23"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="24" t="s">
+      <c r="D230" s="23"/>
+      <c r="E230" s="24"/>
+      <c r="F230" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G210" s="23"/>
-      <c r="H210" s="24" t="s">
+      <c r="G230" s="23"/>
+      <c r="H230" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="I210" s="33" t="s">
+      <c r="I230" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J210" s="23"/>
-      <c r="K210" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L210" s="23"/>
-    </row>
-    <row r="211" spans="1:12" ht="30">
-      <c r="A211" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B211" s="23" t="s">
+      <c r="J230" s="23"/>
+      <c r="K230" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L230" s="23"/>
+    </row>
+    <row r="231" spans="1:12" ht="30">
+      <c r="A231" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B231" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C211" s="33" t="s">
+      <c r="C231" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D211" s="21" t="s">
+      <c r="D231" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="E211" s="25" t="s">
+      <c r="E231" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="F211" s="25" t="s">
+      <c r="F231" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G211" s="21">
+      <c r="G231" s="21">
         <v>2048</v>
       </c>
-      <c r="H211" s="25" t="s">
+      <c r="H231" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="I211" s="33" t="s">
+      <c r="I231" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="J211" s="21"/>
-      <c r="K211" s="23" t="s">
+      <c r="J231" s="21"/>
+      <c r="K231" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="L211" s="21"/>
-    </row>
-    <row r="212" spans="1:12" ht="60">
-      <c r="A212" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B212" s="23" t="s">
+      <c r="L231" s="21"/>
+    </row>
+    <row r="232" spans="1:12" ht="60">
+      <c r="A232" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="C212" s="33" t="s">
+      <c r="C232" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D212" s="21" t="s">
+      <c r="D232" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="E212" s="25" t="s">
+      <c r="E232" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="F212" s="25" t="s">
+      <c r="F232" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G212" s="21">
+      <c r="G232" s="21">
         <v>256</v>
       </c>
-      <c r="H212" s="25" t="s">
+      <c r="H232" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="I212" s="33" t="s">
+      <c r="I232" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="J212" s="21"/>
-      <c r="K212" s="23" t="s">
+      <c r="J232" s="21"/>
+      <c r="K232" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="L212" s="21"/>
-    </row>
-    <row r="213" spans="1:12" ht="60">
-      <c r="A213" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B213" s="23" t="s">
+      <c r="L232" s="21"/>
+    </row>
+    <row r="233" spans="1:12" ht="60">
+      <c r="A233" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="C213" s="33" t="s">
+      <c r="C233" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="D213" s="21" t="s">
+      <c r="D233" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="E213" s="25" t="s">
+      <c r="E233" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="F213" s="25" t="s">
+      <c r="F233" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G213" s="21">
+      <c r="G233" s="21">
         <v>256</v>
       </c>
-      <c r="H213" s="25" t="s">
+      <c r="H233" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="I213" s="33" t="s">
+      <c r="I233" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="J213" s="21"/>
-      <c r="K213" s="23" t="s">
+      <c r="J233" s="21"/>
+      <c r="K233" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="L213" s="21"/>
-    </row>
-    <row r="214" spans="1:12">
-      <c r="A214" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" s="23" t="s">
+      <c r="L233" s="21"/>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="C214" s="33" t="s">
+      <c r="C234" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="D214" s="21"/>
-      <c r="E214" s="25"/>
-      <c r="F214" s="25" t="s">
+      <c r="D234" s="21"/>
+      <c r="E234" s="25"/>
+      <c r="F234" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="G214" s="21"/>
-      <c r="H214" s="25" t="s">
+      <c r="G234" s="21"/>
+      <c r="H234" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="I214" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J214" s="21"/>
-      <c r="K214" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L214" s="21"/>
-    </row>
-    <row r="215" spans="1:12">
-      <c r="A215" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B215" s="34" t="s">
+      <c r="I234" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" s="21"/>
+      <c r="K234" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L234" s="21"/>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C215" s="29" t="s">
+      <c r="C235" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D215" s="22" t="s">
+      <c r="D235" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="E215" s="35" t="s">
+      <c r="E235" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="F215" s="35" t="s">
+      <c r="F235" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21" t="s">
+      <c r="G235" s="21"/>
+      <c r="H235" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="I215" s="33" t="s">
+      <c r="I235" s="33" t="s">
         <v>400</v>
       </c>
-      <c r="J215" s="21"/>
-      <c r="K215" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L215" s="21"/>
-    </row>
-    <row r="216" spans="1:12" ht="90">
-      <c r="A216" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B216" s="34" t="s">
+      <c r="J235" s="21"/>
+      <c r="K235" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L235" s="21"/>
+    </row>
+    <row r="236" spans="1:12" ht="90">
+      <c r="A236" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C216" s="29" t="s">
+      <c r="C236" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D216" s="36" t="s">
+      <c r="D236" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="E216" s="35" t="s">
+      <c r="E236" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="F216" s="35" t="s">
+      <c r="F236" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G216" s="21"/>
-      <c r="H216" s="35" t="s">
+      <c r="G236" s="21"/>
+      <c r="H236" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="I216" s="33" t="s">
+      <c r="I236" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="J216" s="21"/>
-      <c r="K216" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L216" s="21"/>
-    </row>
-    <row r="217" spans="1:12" ht="30">
-      <c r="A217" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B217" s="34" t="s">
+      <c r="J236" s="21"/>
+      <c r="K236" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L236" s="21"/>
+    </row>
+    <row r="237" spans="1:12" ht="30">
+      <c r="A237" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C217" s="29" t="s">
+      <c r="C237" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D217" s="36" t="s">
+      <c r="D237" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="E217" s="35" t="s">
+      <c r="E237" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="F217" s="35" t="s">
+      <c r="F237" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G217" s="21"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="33" t="s">
+      <c r="G237" s="21"/>
+      <c r="H237" s="35"/>
+      <c r="I237" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="J217" s="21"/>
-      <c r="K217" s="21"/>
-      <c r="L217" s="21"/>
+      <c r="J237" s="21"/>
+      <c r="K237" s="21"/>
+      <c r="L237" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L214">
+  <autoFilter ref="A1:L234">
     <filterColumn colId="1"/>
     <filterColumn colId="10"/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1"/>
-    <hyperlink ref="D216" r:id="rId2" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
-    <hyperlink ref="D217" r:id="rId3" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
+    <hyperlink ref="H31" r:id="rId1"/>
+    <hyperlink ref="D236" r:id="rId2" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
+    <hyperlink ref="D237" r:id="rId3" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/bestxengine-cs/ConfigurationNotes.xlsx
+++ b/bestxengine-cs/ConfigurationNotes.xlsx
@@ -11,14 +11,14 @@
     <sheet name="README-Sample data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bestxengine-cs'!$A$1:$L$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'bestxengine-cs'!$A$1:$L$238</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="449">
   <si>
     <t>Assembly</t>
   </si>
@@ -2559,6 +2559,42 @@
   </si>
   <si>
     <t>fix value of the decision maker id source (MIFID2)</t>
+  </si>
+  <si>
+    <t>ValidateFieldsOutOfOrder=N</t>
+  </si>
+  <si>
+    <t>ValidateFieldsHaveValues=N</t>
+  </si>
+  <si>
+    <t>ValidateUserDefinedFields=N</t>
+  </si>
+  <si>
+    <t>ValidateIncomingMessage=N</t>
+  </si>
+  <si>
+    <t>AllowUnknownFields=Y</t>
+  </si>
+  <si>
+    <t>ALL fix-tradestac properties files</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>fix session configuration to check field order in fix messages</t>
+  </si>
+  <si>
+    <t>fix session configuration to validate fields with values in fix messages</t>
+  </si>
+  <si>
+    <t>fix session configuration to validate user defined fields in fix messages</t>
+  </si>
+  <si>
+    <t>fix session configuration to validate incoming fix messages</t>
+  </si>
+  <si>
+    <t>fix session configuration to allow unknown fix fields in messages</t>
   </si>
 </sst>
 </file>
@@ -3131,19 +3167,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L237"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="765" activePane="bottomLeft"/>
+      <pane ySplit="765" topLeftCell="A9" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="26" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="26" customWidth="1"/>
@@ -3720,185 +3756,175 @@
       <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" s="19" customFormat="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>442</v>
+      </c>
       <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>353</v>
+      </c>
       <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="H21" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>443</v>
+      </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="1:12" s="19" customFormat="1" ht="75">
-      <c r="A22" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="27" t="s">
+    <row r="22" spans="1:12" s="19" customFormat="1">
+      <c r="A22" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1">
+      <c r="A23" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" s="19" customFormat="1">
+      <c r="A24" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1">
+      <c r="A25" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="75">
+      <c r="A26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C26" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D26" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E26" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G26" s="18">
         <v>600000</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H26" s="28">
         <v>600000</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I26" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J26" s="18" t="s">
         <v>375</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" spans="1:12" s="19" customFormat="1" ht="45">
-      <c r="A23" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="28">
-        <v>3</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="30">
-      <c r="A24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="30">
-      <c r="A25" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="28">
-        <v>5</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="60">
-      <c r="A26" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>364</v>
       </c>
       <c r="K26" s="18" t="s">
         <v>320</v>
@@ -3910,26 +3936,26 @@
         <v>10</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>361</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>272</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="28">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>364</v>
@@ -3944,26 +3970,26 @@
         <v>10</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>391</v>
+        <v>355</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>361</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>272</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="28" t="s">
-        <v>388</v>
+        <v>320</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>14</v>
+        <v>368</v>
       </c>
       <c r="J28" s="18" t="s">
         <v>364</v>
@@ -3973,12 +3999,12 @@
       </c>
       <c r="L28" s="18"/>
     </row>
-    <row r="29" spans="1:12" s="19" customFormat="1" ht="45">
+    <row r="29" spans="1:12" s="19" customFormat="1" ht="30">
       <c r="A29" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>12</v>
@@ -3987,19 +4013,17 @@
         <v>361</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>379</v>
+        <v>272</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="28">
+        <v>5</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J29" s="18" t="s">
         <v>364</v>
@@ -4009,31 +4033,31 @@
       </c>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" ht="45">
+    <row r="30" spans="1:12" s="19" customFormat="1" ht="60">
       <c r="A30" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>361</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>272</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="28" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>368</v>
+        <v>14</v>
       </c>
       <c r="J30" s="18" t="s">
         <v>364</v>
@@ -4043,12 +4067,12 @@
       </c>
       <c r="L30" s="18"/>
     </row>
-    <row r="31" spans="1:12" ht="75">
+    <row r="31" spans="1:12" s="19" customFormat="1" ht="45">
       <c r="A31" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>322</v>
@@ -4057,17 +4081,17 @@
         <v>361</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>272</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="20" t="s">
-        <v>384</v>
+      <c r="H31" s="28">
+        <v>24</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>14</v>
+        <v>373</v>
       </c>
       <c r="J31" s="18" t="s">
         <v>364</v>
@@ -4077,12 +4101,12 @@
       </c>
       <c r="L31" s="18"/>
     </row>
-    <row r="32" spans="1:12" ht="120">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="30">
       <c r="A32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>322</v>
@@ -4091,19 +4115,17 @@
         <v>361</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="H32" s="28">
-        <v>24</v>
+        <v>272</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="28" t="s">
+        <v>388</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>373</v>
+        <v>14</v>
       </c>
       <c r="J32" s="18" t="s">
         <v>364</v>
@@ -4113,31 +4135,33 @@
       </c>
       <c r="L32" s="18"/>
     </row>
-    <row r="33" spans="1:12" ht="30">
+    <row r="33" spans="1:12" s="19" customFormat="1" ht="45">
       <c r="A33" s="27" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>361</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="G33" s="18"/>
+        <v>353</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
       <c r="H33" s="28" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>14</v>
+        <v>378</v>
       </c>
       <c r="J33" s="18" t="s">
         <v>364</v>
@@ -4147,167 +4171,185 @@
       </c>
       <c r="L33" s="18"/>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+    <row r="34" spans="1:12" ht="45">
+      <c r="A34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="G34" s="18"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="H34" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>320</v>
+      </c>
       <c r="L34" s="18"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="31" t="s">
+    <row r="35" spans="1:12" ht="75">
+      <c r="A35" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I35" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K35" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="L35" s="21"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L36" s="21"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L37" s="21"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" ht="120">
+      <c r="A36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="H36" s="28">
+        <v>24</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>373</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:12" ht="30">
+      <c r="A37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="L38" s="21"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>257</v>
       </c>
       <c r="G39" s="29"/>
-      <c r="H39" s="30">
-        <v>60</v>
+      <c r="H39" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="I39" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L39" s="21"/>
     </row>
@@ -4316,24 +4358,24 @@
         <v>10</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>257</v>
       </c>
       <c r="G40" s="29"/>
-      <c r="H40" s="30">
-        <v>300</v>
+      <c r="H40" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="I40" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="31" t="s">
@@ -4341,56 +4383,56 @@
       </c>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12" ht="75">
+    <row r="41" spans="1:12">
       <c r="A41" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I41" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J41" s="29"/>
-      <c r="K41" s="32" t="s">
+      <c r="K41" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L41" s="21"/>
     </row>
-    <row r="42" spans="1:12" ht="75">
+    <row r="42" spans="1:12">
       <c r="A42" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="29"/>
       <c r="E42" s="30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I42" s="29" t="s">
         <v>14</v>
@@ -4401,172 +4443,178 @@
       </c>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12" ht="45">
+    <row r="43" spans="1:12">
       <c r="A43" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C43" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="29"/>
       <c r="E43" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="30">
-        <v>180000</v>
+        <v>60</v>
       </c>
       <c r="I43" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J43" s="29"/>
-      <c r="K43" s="21" t="s">
+      <c r="K43" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:12">
       <c r="A44" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="29"/>
       <c r="E44" s="30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G44" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="30" t="b">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30">
+        <v>300</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J44" s="29"/>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12" ht="60">
+    <row r="45" spans="1:12" ht="75">
       <c r="A45" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C45" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="29"/>
       <c r="E45" s="30" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G45" s="29"/>
-      <c r="H45" s="30">
-        <v>15</v>
+      <c r="H45" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="I45" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J45" s="29"/>
-      <c r="K45" s="21" t="s">
+      <c r="K45" s="32" t="s">
         <v>319</v>
       </c>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12" ht="60">
+    <row r="46" spans="1:12" ht="75">
       <c r="A46" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="30" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="H46" s="30">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="I46" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J46" s="29"/>
-      <c r="K46" s="21" t="s">
+      <c r="K46" s="31" t="s">
         <v>319</v>
       </c>
       <c r="L46" s="21"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" ht="45">
       <c r="A47" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>322</v>
+        <v>29</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>12</v>
       </c>
       <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
+      <c r="E47" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>263</v>
+      </c>
       <c r="G47" s="29"/>
       <c r="H47" s="30">
-        <v>11498243</v>
+        <v>180000</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="29"/>
-      <c r="K47" s="22" t="s">
-        <v>321</v>
+      <c r="K47" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12" ht="30">
+    <row r="48" spans="1:12" ht="45">
       <c r="A48" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C48" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30" t="s">
-        <v>35</v>
+      <c r="E48" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I48" s="29" t="s">
         <v>14</v>
@@ -4577,22 +4625,26 @@
       </c>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="60">
       <c r="A49" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
+      <c r="E49" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>267</v>
+      </c>
       <c r="G49" s="29"/>
       <c r="H49" s="30">
-        <v>30000</v>
+        <v>15</v>
       </c>
       <c r="I49" s="29" t="s">
         <v>22</v>
@@ -4603,22 +4655,28 @@
       </c>
       <c r="L49" s="21"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="60">
       <c r="A50" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="29"/>
+      <c r="E50" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>269</v>
+      </c>
       <c r="H50" s="30">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="I50" s="29" t="s">
         <v>22</v>
@@ -4634,33 +4692,33 @@
         <v>10</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>322</v>
       </c>
       <c r="D51" s="29"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
       <c r="G51" s="29"/>
       <c r="H51" s="30">
-        <v>10000</v>
+        <v>11498243</v>
       </c>
       <c r="I51" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J51" s="29"/>
-      <c r="K51" s="21" t="s">
-        <v>319</v>
+      <c r="K51" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C52" s="29" t="s">
         <v>12</v>
@@ -4670,7 +4728,7 @@
       <c r="F52" s="30"/>
       <c r="G52" s="29"/>
       <c r="H52" s="30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I52" s="29" t="s">
         <v>14</v>
@@ -4686,7 +4744,7 @@
         <v>10</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C53" s="29" t="s">
         <v>12</v>
@@ -4696,7 +4754,7 @@
       <c r="F53" s="30"/>
       <c r="G53" s="29"/>
       <c r="H53" s="30">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="I53" s="29" t="s">
         <v>22</v>
@@ -4712,7 +4770,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>12</v>
@@ -4722,7 +4780,7 @@
       <c r="F54" s="30"/>
       <c r="G54" s="29"/>
       <c r="H54" s="30">
-        <v>1000</v>
+        <v>600000</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>22</v>
@@ -4738,24 +4796,24 @@
         <v>10</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="29"/>
       <c r="E55" s="30"/>
       <c r="F55" s="30"/>
       <c r="G55" s="29"/>
-      <c r="H55" s="30" t="s">
-        <v>44</v>
+      <c r="H55" s="30">
+        <v>10000</v>
       </c>
       <c r="I55" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J55" s="29"/>
-      <c r="K55" s="22" t="s">
-        <v>321</v>
+      <c r="K55" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L55" s="21"/>
     </row>
@@ -4764,7 +4822,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>12</v>
@@ -4773,11 +4831,11 @@
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="29"/>
-      <c r="H56" s="30">
-        <v>240000</v>
+      <c r="H56" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="I56" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J56" s="29"/>
       <c r="K56" s="21" t="s">
@@ -4790,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>12</v>
@@ -4800,14 +4858,14 @@
       <c r="F57" s="30"/>
       <c r="G57" s="29"/>
       <c r="H57" s="30">
-        <v>1000000</v>
+        <v>100</v>
       </c>
       <c r="I57" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J57" s="29"/>
       <c r="K57" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L57" s="21"/>
     </row>
@@ -4816,7 +4874,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C58" s="29" t="s">
         <v>12</v>
@@ -4826,14 +4884,14 @@
       <c r="F58" s="30"/>
       <c r="G58" s="29"/>
       <c r="H58" s="30">
-        <v>500000</v>
+        <v>1000</v>
       </c>
       <c r="I58" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J58" s="29"/>
       <c r="K58" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L58" s="21"/>
     </row>
@@ -4842,9 +4900,9 @@
         <v>10</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="33" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="29"/>
@@ -4852,13 +4910,13 @@
       <c r="F59" s="30"/>
       <c r="G59" s="29"/>
       <c r="H59" s="30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I59" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J59" s="29"/>
-      <c r="K59" s="21" t="s">
+      <c r="K59" s="22" t="s">
         <v>321</v>
       </c>
       <c r="L59" s="21"/>
@@ -4868,7 +4926,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>12</v>
@@ -4878,7 +4936,7 @@
       <c r="F60" s="30"/>
       <c r="G60" s="29"/>
       <c r="H60" s="30">
-        <v>270000</v>
+        <v>240000</v>
       </c>
       <c r="I60" s="29" t="s">
         <v>22</v>
@@ -4894,7 +4952,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>12</v>
@@ -4904,14 +4962,14 @@
       <c r="F61" s="30"/>
       <c r="G61" s="29"/>
       <c r="H61" s="30">
-        <v>1800000</v>
+        <v>1000000</v>
       </c>
       <c r="I61" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L61" s="21"/>
     </row>
@@ -4920,7 +4978,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>12</v>
@@ -4930,14 +4988,14 @@
       <c r="F62" s="30"/>
       <c r="G62" s="29"/>
       <c r="H62" s="30">
-        <v>60</v>
+        <v>500000</v>
       </c>
       <c r="I62" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="29"/>
       <c r="K62" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L62" s="21"/>
     </row>
@@ -4946,7 +5004,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C63" s="29" t="s">
         <v>12</v>
@@ -4955,15 +5013,15 @@
       <c r="E63" s="30"/>
       <c r="F63" s="30"/>
       <c r="G63" s="29"/>
-      <c r="H63" s="30">
-        <v>60</v>
+      <c r="H63" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J63" s="29"/>
       <c r="K63" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L63" s="21"/>
     </row>
@@ -4972,7 +5030,7 @@
         <v>10</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>12</v>
@@ -4982,7 +5040,7 @@
       <c r="F64" s="30"/>
       <c r="G64" s="29"/>
       <c r="H64" s="30">
-        <v>60</v>
+        <v>270000</v>
       </c>
       <c r="I64" s="29" t="s">
         <v>22</v>
@@ -4998,7 +5056,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C65" s="29" t="s">
         <v>12</v>
@@ -5008,7 +5066,7 @@
       <c r="F65" s="30"/>
       <c r="G65" s="29"/>
       <c r="H65" s="30">
-        <v>2</v>
+        <v>1800000</v>
       </c>
       <c r="I65" s="29" t="s">
         <v>22</v>
@@ -5024,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C66" s="29" t="s">
         <v>12</v>
@@ -5034,7 +5092,7 @@
       <c r="F66" s="30"/>
       <c r="G66" s="29"/>
       <c r="H66" s="30">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I66" s="29" t="s">
         <v>22</v>
@@ -5050,7 +5108,7 @@
         <v>10</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>12</v>
@@ -5076,7 +5134,7 @@
         <v>10</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>12</v>
@@ -5086,7 +5144,7 @@
       <c r="F68" s="30"/>
       <c r="G68" s="29"/>
       <c r="H68" s="30">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I68" s="29" t="s">
         <v>22</v>
@@ -5102,7 +5160,7 @@
         <v>10</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69" s="29" t="s">
         <v>12</v>
@@ -5112,7 +5170,7 @@
       <c r="F69" s="30"/>
       <c r="G69" s="29"/>
       <c r="H69" s="30">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I69" s="29" t="s">
         <v>22</v>
@@ -5128,7 +5186,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>12</v>
@@ -5138,7 +5196,7 @@
       <c r="F70" s="30"/>
       <c r="G70" s="29"/>
       <c r="H70" s="30">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I70" s="29" t="s">
         <v>22</v>
@@ -5154,7 +5212,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>12</v>
@@ -5163,11 +5221,11 @@
       <c r="E71" s="30"/>
       <c r="F71" s="30"/>
       <c r="G71" s="29"/>
-      <c r="H71" s="30" t="s">
-        <v>62</v>
+      <c r="H71" s="30">
+        <v>60</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J71" s="29"/>
       <c r="K71" s="21" t="s">
@@ -5180,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>12</v>
@@ -5189,11 +5247,11 @@
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="30" t="s">
-        <v>62</v>
+      <c r="H72" s="30">
+        <v>17</v>
       </c>
       <c r="I72" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J72" s="29"/>
       <c r="K72" s="21" t="s">
@@ -5206,7 +5264,7 @@
         <v>10</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>12</v>
@@ -5216,7 +5274,7 @@
       <c r="F73" s="30"/>
       <c r="G73" s="29"/>
       <c r="H73" s="30">
-        <v>18000</v>
+        <v>30</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>22</v>
@@ -5232,7 +5290,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>12</v>
@@ -5242,7 +5300,7 @@
       <c r="F74" s="30"/>
       <c r="G74" s="29"/>
       <c r="H74" s="30">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="I74" s="29" t="s">
         <v>22</v>
@@ -5258,7 +5316,7 @@
         <v>10</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>12</v>
@@ -5267,11 +5325,11 @@
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="30">
-        <v>60</v>
+      <c r="H75" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J75" s="29"/>
       <c r="K75" s="21" t="s">
@@ -5284,7 +5342,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>12</v>
@@ -5293,11 +5351,11 @@
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
       <c r="G76" s="29"/>
-      <c r="H76" s="30">
-        <v>360</v>
+      <c r="H76" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J76" s="29"/>
       <c r="K76" s="21" t="s">
@@ -5310,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C77" s="29" t="s">
         <v>12</v>
@@ -5320,10 +5378,10 @@
       <c r="F77" s="30"/>
       <c r="G77" s="29"/>
       <c r="H77" s="30">
-        <v>0.4375</v>
+        <v>18000</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="21" t="s">
@@ -5336,7 +5394,7 @@
         <v>10</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C78" s="29" t="s">
         <v>12</v>
@@ -5346,7 +5404,7 @@
       <c r="F78" s="30"/>
       <c r="G78" s="29"/>
       <c r="H78" s="30">
-        <v>18</v>
+        <v>5000</v>
       </c>
       <c r="I78" s="29" t="s">
         <v>22</v>
@@ -5362,7 +5420,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C79" s="29" t="s">
         <v>12</v>
@@ -5372,7 +5430,7 @@
       <c r="F79" s="30"/>
       <c r="G79" s="29"/>
       <c r="H79" s="30">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I79" s="29" t="s">
         <v>22</v>
@@ -5388,7 +5446,7 @@
         <v>10</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>12</v>
@@ -5398,7 +5456,7 @@
       <c r="F80" s="30"/>
       <c r="G80" s="29"/>
       <c r="H80" s="30">
-        <v>22</v>
+        <v>360</v>
       </c>
       <c r="I80" s="29" t="s">
         <v>22</v>
@@ -5414,7 +5472,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>12</v>
@@ -5424,10 +5482,10 @@
       <c r="F81" s="30"/>
       <c r="G81" s="29"/>
       <c r="H81" s="30">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="I81" s="29" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="J81" s="29"/>
       <c r="K81" s="21" t="s">
@@ -5440,7 +5498,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>12</v>
@@ -5449,11 +5507,11 @@
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="29"/>
-      <c r="H82" s="30" t="s">
-        <v>75</v>
+      <c r="H82" s="30">
+        <v>18</v>
       </c>
       <c r="I82" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J82" s="29"/>
       <c r="K82" s="21" t="s">
@@ -5466,7 +5524,7 @@
         <v>10</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>12</v>
@@ -5475,11 +5533,11 @@
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
       <c r="G83" s="29"/>
-      <c r="H83" s="30" t="s">
-        <v>77</v>
+      <c r="H83" s="30">
+        <v>30</v>
       </c>
       <c r="I83" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="21" t="s">
@@ -5492,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C84" s="29" t="s">
         <v>12</v>
@@ -5502,7 +5560,7 @@
       <c r="F84" s="30"/>
       <c r="G84" s="29"/>
       <c r="H84" s="30">
-        <v>500</v>
+        <v>22</v>
       </c>
       <c r="I84" s="29" t="s">
         <v>22</v>
@@ -5518,7 +5576,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C85" s="29" t="s">
         <v>12</v>
@@ -5528,7 +5586,7 @@
       <c r="F85" s="30"/>
       <c r="G85" s="29"/>
       <c r="H85" s="30">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="I85" s="29" t="s">
         <v>22</v>
@@ -5544,24 +5602,24 @@
         <v>10</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
       <c r="G86" s="29"/>
       <c r="H86" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I86" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J86" s="29"/>
       <c r="K86" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L86" s="21"/>
     </row>
@@ -5570,24 +5628,24 @@
         <v>10</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
       <c r="G87" s="29"/>
       <c r="H87" s="30" t="s">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="I87" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J87" s="29"/>
       <c r="K87" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L87" s="21"/>
     </row>
@@ -5596,24 +5654,24 @@
         <v>10</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>358</v>
+        <v>78</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="30"/>
       <c r="F88" s="30"/>
       <c r="G88" s="29"/>
       <c r="H88" s="30">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="I88" s="29" t="s">
-        <v>347</v>
+        <v>22</v>
       </c>
       <c r="J88" s="29"/>
       <c r="K88" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L88" s="21"/>
     </row>
@@ -5622,24 +5680,24 @@
         <v>10</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="30"/>
       <c r="F89" s="30"/>
       <c r="G89" s="29"/>
-      <c r="H89" s="30" t="s">
-        <v>343</v>
+      <c r="H89" s="30">
+        <v>8000</v>
       </c>
       <c r="I89" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J89" s="29"/>
       <c r="K89" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L89" s="21"/>
     </row>
@@ -5648,20 +5706,20 @@
         <v>10</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="30"/>
       <c r="F90" s="30"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="30">
-        <v>4</v>
+      <c r="H90" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="J90" s="29"/>
       <c r="K90" s="21" t="s">
@@ -5674,20 +5732,20 @@
         <v>10</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
       <c r="G91" s="29"/>
       <c r="H91" s="30" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
       <c r="I91" s="29" t="s">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="J91" s="29"/>
       <c r="K91" s="21" t="s">
@@ -5700,20 +5758,20 @@
         <v>10</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="30"/>
       <c r="F92" s="30"/>
       <c r="G92" s="29"/>
       <c r="H92" s="30">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I92" s="29" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J92" s="29"/>
       <c r="K92" s="21" t="s">
@@ -5721,28 +5779,22 @@
       </c>
       <c r="L92" s="21"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:12">
       <c r="A93" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>278</v>
+        <v>357</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F93" s="30" t="s">
-        <v>272</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
       <c r="G93" s="29"/>
-      <c r="H93" s="30">
-        <v>1994</v>
+      <c r="H93" s="30" t="s">
+        <v>343</v>
       </c>
       <c r="I93" s="29" t="s">
         <v>14</v>
@@ -5753,147 +5805,141 @@
       </c>
       <c r="L93" s="21"/>
     </row>
-    <row r="94" spans="1:12" ht="30">
+    <row r="94" spans="1:12">
       <c r="A94" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="F94" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D94" s="29"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
       <c r="G94" s="29"/>
       <c r="H94" s="30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I94" s="29" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="J94" s="29"/>
       <c r="K94" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L94" s="21"/>
     </row>
-    <row r="95" spans="1:12" ht="30">
+    <row r="95" spans="1:12">
       <c r="A95" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="C95" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E95" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="F95" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D95" s="29"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
       <c r="G95" s="29"/>
-      <c r="H95" s="30">
-        <v>3000</v>
+      <c r="H95" s="30" t="s">
+        <v>320</v>
       </c>
       <c r="I95" s="29" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="J95" s="29"/>
       <c r="K95" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L95" s="21"/>
     </row>
-    <row r="96" spans="1:12" ht="30">
+    <row r="96" spans="1:12">
       <c r="A96" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="C96" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="E96" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="F96" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
       <c r="G96" s="29"/>
       <c r="H96" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I96" s="29" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="J96" s="29"/>
       <c r="K96" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L96" s="21"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" ht="30">
       <c r="A97" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" s="29"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G97" s="29"/>
-      <c r="H97" s="30" t="s">
-        <v>83</v>
+      <c r="H97" s="30">
+        <v>1994</v>
       </c>
       <c r="I97" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J97" s="29"/>
       <c r="K97" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L97" s="21"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" ht="30">
       <c r="A98" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>84</v>
+        <v>279</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D98" s="29"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G98" s="29"/>
-      <c r="H98" s="30" t="s">
-        <v>85</v>
+      <c r="H98" s="30">
+        <v>10</v>
       </c>
       <c r="I98" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J98" s="29"/>
       <c r="K98" s="21" t="s">
@@ -5901,25 +5947,31 @@
       </c>
       <c r="L98" s="21"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" ht="30">
       <c r="A99" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D99" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G99" s="29"/>
-      <c r="H99" s="30" t="s">
-        <v>87</v>
+      <c r="H99" s="30">
+        <v>3000</v>
       </c>
       <c r="I99" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J99" s="29"/>
       <c r="K99" s="21" t="s">
@@ -5932,24 +5984,30 @@
         <v>10</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
+        <v>12</v>
+      </c>
+      <c r="D100" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G100" s="29"/>
-      <c r="H100" s="30" t="s">
-        <v>89</v>
+      <c r="H100" s="30">
+        <v>6</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J100" s="29"/>
       <c r="K100" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L100" s="21"/>
     </row>
@@ -5958,7 +6016,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C101" s="29" t="s">
         <v>82</v>
@@ -5968,14 +6026,14 @@
       <c r="F101" s="30"/>
       <c r="G101" s="29"/>
       <c r="H101" s="30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I101" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L101" s="21"/>
     </row>
@@ -5984,7 +6042,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C102" s="29" t="s">
         <v>82</v>
@@ -5994,14 +6052,14 @@
       <c r="F102" s="30"/>
       <c r="G102" s="29"/>
       <c r="H102" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I102" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J102" s="29"/>
       <c r="K102" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L102" s="21"/>
     </row>
@@ -6010,7 +6068,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C103" s="29" t="s">
         <v>82</v>
@@ -6019,24 +6077,24 @@
       <c r="E103" s="30"/>
       <c r="F103" s="30"/>
       <c r="G103" s="29"/>
-      <c r="H103" s="30">
-        <v>8086</v>
+      <c r="H103" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="I103" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J103" s="29"/>
       <c r="K103" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L103" s="21"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" ht="30">
       <c r="A104" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C104" s="29" t="s">
         <v>82</v>
@@ -6045,15 +6103,15 @@
       <c r="E104" s="30"/>
       <c r="F104" s="30"/>
       <c r="G104" s="29"/>
-      <c r="H104" s="30">
-        <v>0</v>
+      <c r="H104" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="I104" s="29" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J104" s="29"/>
       <c r="K104" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L104" s="21"/>
     </row>
@@ -6062,7 +6120,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C105" s="29" t="s">
         <v>82</v>
@@ -6071,15 +6129,15 @@
       <c r="E105" s="30"/>
       <c r="F105" s="30"/>
       <c r="G105" s="29"/>
-      <c r="H105" s="30">
-        <v>0</v>
+      <c r="H105" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="I105" s="29" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="J105" s="29"/>
       <c r="K105" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L105" s="21"/>
     </row>
@@ -6088,7 +6146,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C106" s="29" t="s">
         <v>82</v>
@@ -6097,15 +6155,15 @@
       <c r="E106" s="30"/>
       <c r="F106" s="30"/>
       <c r="G106" s="29"/>
-      <c r="H106" s="30">
-        <v>30</v>
+      <c r="H106" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="I106" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J106" s="29"/>
       <c r="K106" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L106" s="21"/>
     </row>
@@ -6114,7 +6172,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C107" s="29" t="s">
         <v>82</v>
@@ -6124,14 +6182,14 @@
       <c r="F107" s="30"/>
       <c r="G107" s="29"/>
       <c r="H107" s="30">
-        <v>5</v>
+        <v>8086</v>
       </c>
       <c r="I107" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J107" s="29"/>
       <c r="K107" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L107" s="21"/>
     </row>
@@ -6140,7 +6198,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C108" s="29" t="s">
         <v>82</v>
@@ -6149,11 +6207,11 @@
       <c r="E108" s="30"/>
       <c r="F108" s="30"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="30" t="s">
-        <v>100</v>
+      <c r="H108" s="30">
+        <v>0</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J108" s="29"/>
       <c r="K108" s="21" t="s">
@@ -6166,7 +6224,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C109" s="29" t="s">
         <v>82</v>
@@ -6175,11 +6233,11 @@
       <c r="E109" s="30"/>
       <c r="F109" s="30"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="30" t="s">
-        <v>100</v>
+      <c r="H109" s="30">
+        <v>0</v>
       </c>
       <c r="I109" s="29" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J109" s="29"/>
       <c r="K109" s="21" t="s">
@@ -6192,7 +6250,7 @@
         <v>10</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C110" s="29" t="s">
         <v>82</v>
@@ -6201,11 +6259,11 @@
       <c r="E110" s="30"/>
       <c r="F110" s="30"/>
       <c r="G110" s="29"/>
-      <c r="H110" s="30" t="s">
-        <v>100</v>
+      <c r="H110" s="30">
+        <v>30</v>
       </c>
       <c r="I110" s="29" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="J110" s="29"/>
       <c r="K110" s="21" t="s">
@@ -6218,7 +6276,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C111" s="29" t="s">
         <v>82</v>
@@ -6227,11 +6285,11 @@
       <c r="E111" s="30"/>
       <c r="F111" s="30"/>
       <c r="G111" s="29"/>
-      <c r="H111" s="30" t="s">
-        <v>105</v>
+      <c r="H111" s="30">
+        <v>5</v>
       </c>
       <c r="I111" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J111" s="29"/>
       <c r="K111" s="21" t="s">
@@ -6244,7 +6302,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C112" s="29" t="s">
         <v>82</v>
@@ -6270,7 +6328,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C113" s="29" t="s">
         <v>82</v>
@@ -6280,10 +6338,10 @@
       <c r="F113" s="30"/>
       <c r="G113" s="29"/>
       <c r="H113" s="30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I113" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J113" s="29"/>
       <c r="K113" s="21" t="s">
@@ -6296,7 +6354,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C114" s="29" t="s">
         <v>82</v>
@@ -6306,10 +6364,10 @@
       <c r="F114" s="30"/>
       <c r="G114" s="29"/>
       <c r="H114" s="30" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I114" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J114" s="29"/>
       <c r="K114" s="21" t="s">
@@ -6322,7 +6380,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C115" s="29" t="s">
         <v>82</v>
@@ -6332,7 +6390,7 @@
       <c r="F115" s="30"/>
       <c r="G115" s="29"/>
       <c r="H115" s="30" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I115" s="29" t="s">
         <v>14</v>
@@ -6348,7 +6406,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C116" s="29" t="s">
         <v>82</v>
@@ -6357,11 +6415,11 @@
       <c r="E116" s="30"/>
       <c r="F116" s="30"/>
       <c r="G116" s="29"/>
-      <c r="H116" s="30">
-        <v>10</v>
+      <c r="H116" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="I116" s="29" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="J116" s="29"/>
       <c r="K116" s="21" t="s">
@@ -6374,7 +6432,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C117" s="29" t="s">
         <v>82</v>
@@ -6384,10 +6442,10 @@
       <c r="F117" s="30"/>
       <c r="G117" s="29"/>
       <c r="H117" s="30" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I117" s="29" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="J117" s="29"/>
       <c r="K117" s="21" t="s">
@@ -6395,123 +6453,107 @@
       </c>
       <c r="L117" s="21"/>
     </row>
-    <row r="118" spans="1:12" ht="30">
+    <row r="118" spans="1:12">
       <c r="A118" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D118" s="29"/>
-      <c r="E118" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F118" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
       <c r="G118" s="29"/>
       <c r="H118" s="30" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I118" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J118" s="29"/>
-      <c r="K118" s="31" t="s">
-        <v>321</v>
+      <c r="K118" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L118" s="21"/>
     </row>
-    <row r="119" spans="1:12" ht="30">
+    <row r="119" spans="1:12">
       <c r="A119" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B119" s="29" t="s">
-        <v>284</v>
+        <v>111</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D119" s="29"/>
-      <c r="E119" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F119" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="29"/>
-      <c r="H119" s="30">
-        <v>1414</v>
+      <c r="H119" s="30" t="s">
+        <v>112</v>
       </c>
       <c r="I119" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="29"/>
+      <c r="K119" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L119" s="21"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" s="29"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="30">
+        <v>10</v>
+      </c>
+      <c r="I120" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="J119" s="29"/>
-      <c r="K119" s="31" t="s">
-        <v>321</v>
-      </c>
-      <c r="L119" s="21"/>
-    </row>
-    <row r="120" spans="1:12" ht="30">
-      <c r="A120" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="C120" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="D120" s="29"/>
-      <c r="E120" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F120" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G120" s="29"/>
-      <c r="H120" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I120" s="29" t="s">
-        <v>14</v>
-      </c>
       <c r="J120" s="29"/>
-      <c r="K120" s="31" t="s">
-        <v>321</v>
+      <c r="K120" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L120" s="21"/>
     </row>
-    <row r="121" spans="1:12" ht="30">
+    <row r="121" spans="1:12">
       <c r="A121" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>286</v>
+        <v>114</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="D121" s="29"/>
-      <c r="E121" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F121" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
       <c r="G121" s="29"/>
       <c r="H121" s="30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I121" s="29" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="J121" s="29"/>
-      <c r="K121" s="31" t="s">
-        <v>321</v>
+      <c r="K121" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L121" s="21"/>
     </row>
@@ -6520,7 +6562,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C122" s="29" t="s">
         <v>282</v>
@@ -6533,15 +6575,15 @@
         <v>272</v>
       </c>
       <c r="G122" s="29"/>
-      <c r="H122" s="30" t="b">
-        <v>1</v>
+      <c r="H122" s="30" t="s">
+        <v>116</v>
       </c>
       <c r="I122" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J122" s="29"/>
-      <c r="K122" s="21" t="s">
-        <v>319</v>
+      <c r="K122" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L122" s="21"/>
     </row>
@@ -6550,7 +6592,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C123" s="29" t="s">
         <v>282</v>
@@ -6564,37 +6606,37 @@
       </c>
       <c r="G123" s="29"/>
       <c r="H123" s="30">
-        <v>1</v>
+        <v>1414</v>
       </c>
       <c r="I123" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J123" s="29"/>
-      <c r="K123" s="21" t="s">
-        <v>319</v>
+      <c r="K123" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L123" s="21"/>
     </row>
-    <row r="124" spans="1:12" ht="45">
+    <row r="124" spans="1:12" ht="30">
       <c r="A124" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C124" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F124" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G124" s="29"/>
       <c r="H124" s="30" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c r="I124" s="29" t="s">
         <v>14</v>
@@ -6605,29 +6647,29 @@
       </c>
       <c r="L124" s="21"/>
     </row>
-    <row r="125" spans="1:12" ht="45">
+    <row r="125" spans="1:12" ht="30">
       <c r="A125" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B125" s="29" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="C125" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D125" s="29"/>
       <c r="E125" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F125" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G125" s="29"/>
-      <c r="H125" s="30">
-        <v>1415</v>
+      <c r="H125" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="I125" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J125" s="29"/>
       <c r="K125" s="31" t="s">
@@ -6635,63 +6677,63 @@
       </c>
       <c r="L125" s="21"/>
     </row>
-    <row r="126" spans="1:12" ht="45">
+    <row r="126" spans="1:12" ht="30">
       <c r="A126" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="C126" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D126" s="29"/>
       <c r="E126" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F126" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G126" s="29"/>
-      <c r="H126" s="30" t="s">
-        <v>306</v>
+      <c r="H126" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I126" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J126" s="29"/>
-      <c r="K126" s="31" t="s">
-        <v>321</v>
+      <c r="K126" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L126" s="21"/>
     </row>
-    <row r="127" spans="1:12" ht="45">
+    <row r="127" spans="1:12" ht="30">
       <c r="A127" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C127" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F127" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G127" s="29"/>
-      <c r="H127" s="30" t="s">
-        <v>308</v>
+      <c r="H127" s="30">
+        <v>1</v>
       </c>
       <c r="I127" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J127" s="29"/>
-      <c r="K127" s="31" t="s">
-        <v>321</v>
+      <c r="K127" s="21" t="s">
+        <v>319</v>
       </c>
       <c r="L127" s="21"/>
     </row>
@@ -6700,7 +6742,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C128" s="29" t="s">
         <v>282</v>
@@ -6714,14 +6756,14 @@
       </c>
       <c r="G128" s="29"/>
       <c r="H128" s="30" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I128" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J128" s="29"/>
       <c r="K128" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L128" s="21"/>
     </row>
@@ -6729,8 +6771,8 @@
       <c r="A129" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="21" t="s">
-        <v>310</v>
+      <c r="B129" s="29" t="s">
+        <v>304</v>
       </c>
       <c r="C129" s="29" t="s">
         <v>282</v>
@@ -6743,98 +6785,98 @@
         <v>272</v>
       </c>
       <c r="G129" s="29"/>
-      <c r="H129" s="30" t="s">
-        <v>311</v>
+      <c r="H129" s="30">
+        <v>1415</v>
       </c>
       <c r="I129" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J129" s="29"/>
       <c r="K129" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L129" s="21"/>
     </row>
-    <row r="130" spans="1:12" ht="30">
+    <row r="130" spans="1:12" ht="45">
       <c r="A130" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B130" s="29" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C130" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D130" s="29"/>
       <c r="E130" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F130" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G130" s="29"/>
       <c r="H130" s="30" t="s">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="I130" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J130" s="29"/>
       <c r="K130" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L130" s="21"/>
     </row>
-    <row r="131" spans="1:12" ht="30">
+    <row r="131" spans="1:12" ht="45">
       <c r="A131" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B131" s="29" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C131" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F131" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G131" s="29"/>
-      <c r="H131" s="30" t="b">
-        <v>0</v>
+      <c r="H131" s="30" t="s">
+        <v>308</v>
       </c>
       <c r="I131" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J131" s="29"/>
       <c r="K131" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L131" s="21"/>
     </row>
-    <row r="132" spans="1:12" ht="30">
+    <row r="132" spans="1:12" ht="45">
       <c r="A132" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B132" s="29" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C132" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D132" s="29"/>
       <c r="E132" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F132" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G132" s="29"/>
       <c r="H132" s="30" t="s">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="I132" s="29" t="s">
         <v>14</v>
@@ -6845,26 +6887,26 @@
       </c>
       <c r="L132" s="21"/>
     </row>
-    <row r="133" spans="1:12" ht="30">
+    <row r="133" spans="1:12" ht="45">
       <c r="A133" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B133" s="29" t="s">
-        <v>296</v>
+      <c r="B133" s="21" t="s">
+        <v>310</v>
       </c>
       <c r="C133" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D133" s="29"/>
       <c r="E133" s="30" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F133" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G133" s="29"/>
       <c r="H133" s="30" t="s">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="I133" s="29" t="s">
         <v>14</v>
@@ -6880,7 +6922,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C134" s="29" t="s">
         <v>282</v>
@@ -6894,14 +6936,14 @@
       </c>
       <c r="G134" s="29"/>
       <c r="H134" s="30" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I134" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J134" s="29"/>
       <c r="K134" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L134" s="21"/>
     </row>
@@ -6910,7 +6952,7 @@
         <v>10</v>
       </c>
       <c r="B135" s="29" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C135" s="29" t="s">
         <v>282</v>
@@ -6923,8 +6965,8 @@
         <v>272</v>
       </c>
       <c r="G135" s="29"/>
-      <c r="H135" s="30" t="s">
-        <v>125</v>
+      <c r="H135" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I135" s="29" t="s">
         <v>14</v>
@@ -6940,7 +6982,7 @@
         <v>10</v>
       </c>
       <c r="B136" s="29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C136" s="29" t="s">
         <v>282</v>
@@ -6954,7 +6996,7 @@
       </c>
       <c r="G136" s="29"/>
       <c r="H136" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I136" s="29" t="s">
         <v>14</v>
@@ -6970,7 +7012,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C137" s="29" t="s">
         <v>282</v>
@@ -6984,14 +7026,14 @@
       </c>
       <c r="G137" s="29"/>
       <c r="H137" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I137" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J137" s="29"/>
       <c r="K137" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L137" s="21"/>
     </row>
@@ -7000,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C138" s="29" t="s">
         <v>282</v>
@@ -7014,14 +7056,14 @@
       </c>
       <c r="G138" s="29"/>
       <c r="H138" s="30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I138" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J138" s="29"/>
       <c r="K138" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L138" s="21"/>
     </row>
@@ -7030,7 +7072,7 @@
         <v>10</v>
       </c>
       <c r="B139" s="29" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C139" s="29" t="s">
         <v>282</v>
@@ -7043,8 +7085,8 @@
         <v>272</v>
       </c>
       <c r="G139" s="29"/>
-      <c r="H139" s="30" t="b">
-        <v>0</v>
+      <c r="H139" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="I139" s="29" t="s">
         <v>14</v>
@@ -7055,56 +7097,56 @@
       </c>
       <c r="L139" s="21"/>
     </row>
-    <row r="140" spans="1:12" ht="45">
+    <row r="140" spans="1:12" ht="30">
       <c r="A140" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C140" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F140" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G140" s="29"/>
       <c r="H140" s="30" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I140" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J140" s="29"/>
       <c r="K140" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L140" s="21"/>
     </row>
-    <row r="141" spans="1:12" ht="45">
+    <row r="141" spans="1:12" ht="30">
       <c r="A141" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B141" s="29" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C141" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D141" s="29"/>
       <c r="E141" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F141" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G141" s="29"/>
       <c r="H141" s="30" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I141" s="29" t="s">
         <v>14</v>
@@ -7115,26 +7157,26 @@
       </c>
       <c r="L141" s="21"/>
     </row>
-    <row r="142" spans="1:12" ht="45">
+    <row r="142" spans="1:12" ht="30">
       <c r="A142" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="C142" s="29" t="s">
         <v>282</v>
       </c>
       <c r="D142" s="29"/>
       <c r="E142" s="30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F142" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G142" s="29"/>
       <c r="H142" s="30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I142" s="29" t="s">
         <v>14</v>
@@ -7145,24 +7187,26 @@
       </c>
       <c r="L142" s="21"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" ht="30">
       <c r="A143" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B143" s="29" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D143" s="29"/>
-      <c r="E143" s="30"/>
+      <c r="E143" s="30" t="s">
+        <v>313</v>
+      </c>
       <c r="F143" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G143" s="29"/>
-      <c r="H143" s="30" t="s">
-        <v>24</v>
+      <c r="H143" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I143" s="29" t="s">
         <v>14</v>
@@ -7173,52 +7217,56 @@
       </c>
       <c r="L143" s="21"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" ht="45">
       <c r="A144" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B144" s="29" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D144" s="29"/>
-      <c r="E144" s="30"/>
+      <c r="E144" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="F144" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G144" s="29"/>
       <c r="H144" s="30" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="I144" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J144" s="29"/>
       <c r="K144" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L144" s="21"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" ht="45">
       <c r="A145" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B145" s="29" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D145" s="29"/>
-      <c r="E145" s="30"/>
+      <c r="E145" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="F145" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G145" s="29"/>
       <c r="H145" s="30" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I145" s="29" t="s">
         <v>14</v>
@@ -7229,31 +7277,33 @@
       </c>
       <c r="L145" s="21"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" ht="45">
       <c r="A146" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B146" s="29" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="D146" s="29"/>
-      <c r="E146" s="30"/>
+      <c r="E146" s="30" t="s">
+        <v>314</v>
+      </c>
       <c r="F146" s="30" t="s">
         <v>272</v>
       </c>
       <c r="G146" s="29"/>
       <c r="H146" s="30" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="I146" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J146" s="29"/>
       <c r="K146" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L146" s="21"/>
     </row>
@@ -7262,7 +7312,7 @@
         <v>10</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C147" s="29" t="s">
         <v>130</v>
@@ -7281,7 +7331,7 @@
       </c>
       <c r="J147" s="29"/>
       <c r="K147" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L147" s="21"/>
     </row>
@@ -7290,7 +7340,7 @@
         <v>10</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C148" s="29" t="s">
         <v>130</v>
@@ -7309,7 +7359,7 @@
       </c>
       <c r="J148" s="29"/>
       <c r="K148" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L148" s="21"/>
     </row>
@@ -7318,7 +7368,7 @@
         <v>10</v>
       </c>
       <c r="B149" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C149" s="29" t="s">
         <v>130</v>
@@ -7337,7 +7387,7 @@
       </c>
       <c r="J149" s="29"/>
       <c r="K149" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L149" s="21"/>
     </row>
@@ -7346,7 +7396,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C150" s="29" t="s">
         <v>130</v>
@@ -7365,7 +7415,7 @@
       </c>
       <c r="J150" s="29"/>
       <c r="K150" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L150" s="21"/>
     </row>
@@ -7374,7 +7424,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C151" s="29" t="s">
         <v>130</v>
@@ -7393,7 +7443,7 @@
       </c>
       <c r="J151" s="29"/>
       <c r="K151" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L151" s="21"/>
     </row>
@@ -7402,7 +7452,7 @@
         <v>10</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C152" s="29" t="s">
         <v>130</v>
@@ -7421,7 +7471,7 @@
       </c>
       <c r="J152" s="29"/>
       <c r="K152" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L152" s="21"/>
     </row>
@@ -7430,7 +7480,7 @@
         <v>10</v>
       </c>
       <c r="B153" s="29" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C153" s="29" t="s">
         <v>130</v>
@@ -7441,11 +7491,11 @@
         <v>272</v>
       </c>
       <c r="G153" s="29"/>
-      <c r="H153" s="30">
-        <v>30210</v>
+      <c r="H153" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I153" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J153" s="29"/>
       <c r="K153" s="31" t="s">
@@ -7458,7 +7508,7 @@
         <v>10</v>
       </c>
       <c r="B154" s="29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C154" s="29" t="s">
         <v>130</v>
@@ -7469,11 +7519,11 @@
         <v>272</v>
       </c>
       <c r="G154" s="29"/>
-      <c r="H154" s="30">
-        <v>30211</v>
+      <c r="H154" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I154" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J154" s="29"/>
       <c r="K154" s="31" t="s">
@@ -7486,7 +7536,7 @@
         <v>10</v>
       </c>
       <c r="B155" s="29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C155" s="29" t="s">
         <v>130</v>
@@ -7497,15 +7547,15 @@
         <v>272</v>
       </c>
       <c r="G155" s="29"/>
-      <c r="H155" s="30">
-        <v>30218</v>
+      <c r="H155" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I155" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J155" s="29"/>
       <c r="K155" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L155" s="21"/>
     </row>
@@ -7514,7 +7564,7 @@
         <v>10</v>
       </c>
       <c r="B156" s="29" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C156" s="29" t="s">
         <v>130</v>
@@ -7525,15 +7575,15 @@
         <v>272</v>
       </c>
       <c r="G156" s="29"/>
-      <c r="H156" s="30">
-        <v>30219</v>
+      <c r="H156" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I156" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J156" s="29"/>
       <c r="K156" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L156" s="21"/>
     </row>
@@ -7542,7 +7592,7 @@
         <v>10</v>
       </c>
       <c r="B157" s="29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C157" s="29" t="s">
         <v>130</v>
@@ -7554,14 +7604,14 @@
       </c>
       <c r="G157" s="29"/>
       <c r="H157" s="30">
-        <v>40218</v>
+        <v>30210</v>
       </c>
       <c r="I157" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J157" s="29"/>
       <c r="K157" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L157" s="21"/>
     </row>
@@ -7570,7 +7620,7 @@
         <v>10</v>
       </c>
       <c r="B158" s="29" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C158" s="29" t="s">
         <v>130</v>
@@ -7582,14 +7632,14 @@
       </c>
       <c r="G158" s="29"/>
       <c r="H158" s="30">
-        <v>40219</v>
+        <v>30211</v>
       </c>
       <c r="I158" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J158" s="29"/>
       <c r="K158" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L158" s="21"/>
     </row>
@@ -7598,7 +7648,7 @@
         <v>10</v>
       </c>
       <c r="B159" s="29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C159" s="29" t="s">
         <v>130</v>
@@ -7610,7 +7660,7 @@
       </c>
       <c r="G159" s="29"/>
       <c r="H159" s="30">
-        <v>30222</v>
+        <v>30218</v>
       </c>
       <c r="I159" s="29" t="s">
         <v>22</v>
@@ -7626,7 +7676,7 @@
         <v>10</v>
       </c>
       <c r="B160" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C160" s="29" t="s">
         <v>130</v>
@@ -7638,7 +7688,7 @@
       </c>
       <c r="G160" s="29"/>
       <c r="H160" s="30">
-        <v>30223</v>
+        <v>30219</v>
       </c>
       <c r="I160" s="29" t="s">
         <v>22</v>
@@ -7654,7 +7704,7 @@
         <v>10</v>
       </c>
       <c r="B161" s="29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C161" s="29" t="s">
         <v>130</v>
@@ -7666,14 +7716,14 @@
       </c>
       <c r="G161" s="29"/>
       <c r="H161" s="30">
-        <v>30227</v>
+        <v>40218</v>
       </c>
       <c r="I161" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J161" s="29"/>
       <c r="K161" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L161" s="21"/>
     </row>
@@ -7682,7 +7732,7 @@
         <v>10</v>
       </c>
       <c r="B162" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C162" s="29" t="s">
         <v>130</v>
@@ -7694,14 +7744,14 @@
       </c>
       <c r="G162" s="29"/>
       <c r="H162" s="30">
-        <v>30228</v>
+        <v>40219</v>
       </c>
       <c r="I162" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J162" s="29"/>
       <c r="K162" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L162" s="21"/>
     </row>
@@ -7710,7 +7760,7 @@
         <v>10</v>
       </c>
       <c r="B163" s="29" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C163" s="29" t="s">
         <v>130</v>
@@ -7721,15 +7771,15 @@
         <v>272</v>
       </c>
       <c r="G163" s="29"/>
-      <c r="H163" s="30" t="s">
-        <v>24</v>
+      <c r="H163" s="30">
+        <v>30222</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J163" s="29"/>
       <c r="K163" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L163" s="21"/>
     </row>
@@ -7738,7 +7788,7 @@
         <v>10</v>
       </c>
       <c r="B164" s="29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C164" s="29" t="s">
         <v>130</v>
@@ -7749,15 +7799,15 @@
         <v>272</v>
       </c>
       <c r="G164" s="29"/>
-      <c r="H164" s="30" t="s">
-        <v>24</v>
+      <c r="H164" s="30">
+        <v>30223</v>
       </c>
       <c r="I164" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J164" s="29"/>
       <c r="K164" s="31" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L164" s="21"/>
     </row>
@@ -7766,7 +7816,7 @@
         <v>10</v>
       </c>
       <c r="B165" s="29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C165" s="29" t="s">
         <v>130</v>
@@ -7777,11 +7827,11 @@
         <v>272</v>
       </c>
       <c r="G165" s="29"/>
-      <c r="H165" s="30" t="s">
-        <v>24</v>
+      <c r="H165" s="30">
+        <v>30227</v>
       </c>
       <c r="I165" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J165" s="29"/>
       <c r="K165" s="31" t="s">
@@ -7794,7 +7844,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C166" s="29" t="s">
         <v>130</v>
@@ -7806,7 +7856,7 @@
       </c>
       <c r="G166" s="29"/>
       <c r="H166" s="30">
-        <v>30105</v>
+        <v>30228</v>
       </c>
       <c r="I166" s="29" t="s">
         <v>22</v>
@@ -7822,20 +7872,22 @@
         <v>10</v>
       </c>
       <c r="B167" s="29" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C167" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D167" s="29"/>
       <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
+      <c r="F167" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G167" s="29"/>
-      <c r="H167" s="30">
-        <v>1</v>
+      <c r="H167" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J167" s="29"/>
       <c r="K167" s="31" t="s">
@@ -7848,20 +7900,22 @@
         <v>10</v>
       </c>
       <c r="B168" s="29" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C168" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D168" s="29"/>
       <c r="E168" s="30"/>
-      <c r="F168" s="30"/>
+      <c r="F168" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G168" s="29"/>
-      <c r="H168" s="30">
-        <v>20000000</v>
+      <c r="H168" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J168" s="29"/>
       <c r="K168" s="31" t="s">
@@ -7874,17 +7928,19 @@
         <v>10</v>
       </c>
       <c r="B169" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C169" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D169" s="29"/>
       <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
+      <c r="F169" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G169" s="29"/>
       <c r="H169" s="30" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="I169" s="29" t="s">
         <v>14</v>
@@ -7900,17 +7956,19 @@
         <v>10</v>
       </c>
       <c r="B170" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C170" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
+      <c r="F170" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G170" s="29"/>
       <c r="H170" s="30">
-        <v>1</v>
+        <v>30105</v>
       </c>
       <c r="I170" s="29" t="s">
         <v>22</v>
@@ -7926,7 +7984,7 @@
         <v>10</v>
       </c>
       <c r="B171" s="29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C171" s="29" t="s">
         <v>130</v>
@@ -7936,7 +7994,7 @@
       <c r="F171" s="30"/>
       <c r="G171" s="29"/>
       <c r="H171" s="30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I171" s="29" t="s">
         <v>22</v>
@@ -7952,7 +8010,7 @@
         <v>10</v>
       </c>
       <c r="B172" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C172" s="29" t="s">
         <v>130</v>
@@ -7962,7 +8020,7 @@
       <c r="F172" s="30"/>
       <c r="G172" s="29"/>
       <c r="H172" s="30">
-        <v>3</v>
+        <v>20000000</v>
       </c>
       <c r="I172" s="29" t="s">
         <v>22</v>
@@ -7978,7 +8036,7 @@
         <v>10</v>
       </c>
       <c r="B173" s="29" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C173" s="29" t="s">
         <v>130</v>
@@ -7987,11 +8045,11 @@
       <c r="E173" s="30"/>
       <c r="F173" s="30"/>
       <c r="G173" s="29"/>
-      <c r="H173" s="30">
-        <v>50</v>
+      <c r="H173" s="30" t="s">
+        <v>131</v>
       </c>
       <c r="I173" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J173" s="29"/>
       <c r="K173" s="31" t="s">
@@ -8004,7 +8062,7 @@
         <v>10</v>
       </c>
       <c r="B174" s="29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C174" s="29" t="s">
         <v>130</v>
@@ -8014,7 +8072,7 @@
       <c r="F174" s="30"/>
       <c r="G174" s="29"/>
       <c r="H174" s="30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I174" s="29" t="s">
         <v>22</v>
@@ -8030,7 +8088,7 @@
         <v>10</v>
       </c>
       <c r="B175" s="29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C175" s="29" t="s">
         <v>130</v>
@@ -8040,7 +8098,7 @@
       <c r="F175" s="30"/>
       <c r="G175" s="29"/>
       <c r="H175" s="30">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I175" s="29" t="s">
         <v>22</v>
@@ -8056,7 +8114,7 @@
         <v>10</v>
       </c>
       <c r="B176" s="29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C176" s="29" t="s">
         <v>130</v>
@@ -8065,11 +8123,11 @@
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="29"/>
-      <c r="H176" s="30" t="s">
-        <v>132</v>
+      <c r="H176" s="30">
+        <v>3</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J176" s="29"/>
       <c r="K176" s="31" t="s">
@@ -8082,7 +8140,7 @@
         <v>10</v>
       </c>
       <c r="B177" s="29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C177" s="29" t="s">
         <v>130</v>
@@ -8091,11 +8149,11 @@
       <c r="E177" s="30"/>
       <c r="F177" s="30"/>
       <c r="G177" s="29"/>
-      <c r="H177" s="30" t="s">
-        <v>132</v>
+      <c r="H177" s="30">
+        <v>50</v>
       </c>
       <c r="I177" s="29" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J177" s="29"/>
       <c r="K177" s="31" t="s">
@@ -8108,7 +8166,7 @@
         <v>10</v>
       </c>
       <c r="B178" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>130</v>
@@ -8118,7 +8176,7 @@
       <c r="F178" s="30"/>
       <c r="G178" s="29"/>
       <c r="H178" s="30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I178" s="29" t="s">
         <v>22</v>
@@ -8134,26 +8192,24 @@
         <v>10</v>
       </c>
       <c r="B179" s="29" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D179" s="29"/>
       <c r="E179" s="30"/>
-      <c r="F179" s="29" t="s">
-        <v>272</v>
-      </c>
+      <c r="F179" s="30"/>
       <c r="G179" s="29"/>
       <c r="H179" s="30">
-        <v>50001</v>
+        <v>100</v>
       </c>
       <c r="I179" s="29" t="s">
         <v>22</v>
       </c>
       <c r="J179" s="29"/>
       <c r="K179" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L179" s="21"/>
     </row>
@@ -8162,26 +8218,24 @@
         <v>10</v>
       </c>
       <c r="B180" s="29" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D180" s="29"/>
       <c r="E180" s="30"/>
-      <c r="F180" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="F180" s="30"/>
       <c r="G180" s="29"/>
-      <c r="H180" s="30">
-        <v>50002</v>
+      <c r="H180" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="I180" s="29" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="J180" s="29"/>
       <c r="K180" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L180" s="21"/>
     </row>
@@ -8190,22 +8244,20 @@
         <v>10</v>
       </c>
       <c r="B181" s="29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="30"/>
-      <c r="F181" s="30" t="s">
-        <v>272</v>
-      </c>
+      <c r="F181" s="30"/>
       <c r="G181" s="29"/>
-      <c r="H181" s="30">
-        <v>5</v>
+      <c r="H181" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="I181" s="29" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="J181" s="29"/>
       <c r="K181" s="31" t="s">
@@ -8213,25 +8265,25 @@
       </c>
       <c r="L181" s="21"/>
     </row>
-    <row r="182" spans="1:12" ht="30">
+    <row r="182" spans="1:12">
       <c r="A182" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B182" s="29" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="30"/>
       <c r="F182" s="30"/>
       <c r="G182" s="29"/>
-      <c r="H182" s="30" t="s">
-        <v>137</v>
+      <c r="H182" s="30">
+        <v>-1</v>
       </c>
       <c r="I182" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J182" s="29"/>
       <c r="K182" s="31" t="s">
@@ -8239,25 +8291,27 @@
       </c>
       <c r="L182" s="21"/>
     </row>
-    <row r="183" spans="1:12" ht="30">
+    <row r="183" spans="1:12">
       <c r="A183" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B183" s="29" t="s">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D183" s="29"/>
       <c r="E183" s="30"/>
-      <c r="F183" s="30"/>
+      <c r="F183" s="29" t="s">
+        <v>272</v>
+      </c>
       <c r="G183" s="29"/>
-      <c r="H183" s="30" t="s">
-        <v>140</v>
+      <c r="H183" s="30">
+        <v>50001</v>
       </c>
       <c r="I183" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J183" s="29"/>
       <c r="K183" s="31" t="s">
@@ -8265,25 +8319,27 @@
       </c>
       <c r="L183" s="21"/>
     </row>
-    <row r="184" spans="1:12" ht="30">
+    <row r="184" spans="1:12">
       <c r="A184" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B184" s="29" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="30"/>
-      <c r="F184" s="30"/>
+      <c r="F184" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G184" s="29"/>
-      <c r="H184" s="30" t="s">
-        <v>142</v>
+      <c r="H184" s="30">
+        <v>50002</v>
       </c>
       <c r="I184" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J184" s="29"/>
       <c r="K184" s="31" t="s">
@@ -8291,55 +8347,57 @@
       </c>
       <c r="L184" s="21"/>
     </row>
-    <row r="185" spans="1:12" ht="75">
+    <row r="185" spans="1:12">
       <c r="A185" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B185" s="29" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="30"/>
-      <c r="F185" s="30"/>
+      <c r="F185" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="G185" s="29"/>
-      <c r="H185" s="30" t="s">
-        <v>144</v>
+      <c r="H185" s="30">
+        <v>5</v>
       </c>
       <c r="I185" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J185" s="29"/>
       <c r="K185" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L185" s="21"/>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" ht="30">
       <c r="A186" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B186" s="29" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="30"/>
       <c r="F186" s="30"/>
       <c r="G186" s="29"/>
       <c r="H186" s="30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="I186" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J186" s="29"/>
       <c r="K186" s="31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L186" s="21"/>
     </row>
@@ -8348,7 +8406,7 @@
         <v>10</v>
       </c>
       <c r="B187" s="29" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C187" s="29" t="s">
         <v>139</v>
@@ -8358,7 +8416,7 @@
       <c r="F187" s="30"/>
       <c r="G187" s="29"/>
       <c r="H187" s="30" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I187" s="29" t="s">
         <v>14</v>
@@ -8369,12 +8427,12 @@
       </c>
       <c r="L187" s="21"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" ht="30">
       <c r="A188" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B188" s="29" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C188" s="29" t="s">
         <v>139</v>
@@ -8383,24 +8441,24 @@
       <c r="E188" s="30"/>
       <c r="F188" s="30"/>
       <c r="G188" s="29"/>
-      <c r="H188" s="30" t="b">
-        <v>1</v>
+      <c r="H188" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="I188" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J188" s="29"/>
-      <c r="K188" s="21" t="s">
-        <v>319</v>
+      <c r="K188" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L188" s="21"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" ht="75">
       <c r="A189" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B189" s="29" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C189" s="29" t="s">
         <v>139</v>
@@ -8409,24 +8467,24 @@
       <c r="E189" s="30"/>
       <c r="F189" s="30"/>
       <c r="G189" s="29"/>
-      <c r="H189" s="30" t="b">
-        <v>1</v>
+      <c r="H189" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="I189" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J189" s="29"/>
-      <c r="K189" s="21" t="s">
-        <v>319</v>
+      <c r="K189" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L189" s="21"/>
     </row>
-    <row r="190" spans="1:12" ht="30">
+    <row r="190" spans="1:12">
       <c r="A190" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B190" s="29" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C190" s="29" t="s">
         <v>139</v>
@@ -8436,23 +8494,23 @@
       <c r="F190" s="30"/>
       <c r="G190" s="29"/>
       <c r="H190" s="30" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I190" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J190" s="29"/>
-      <c r="K190" s="21" t="s">
-        <v>319</v>
+      <c r="K190" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L190" s="21"/>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" ht="30">
       <c r="A191" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C191" s="29" t="s">
         <v>139</v>
@@ -8461,15 +8519,15 @@
       <c r="E191" s="30"/>
       <c r="F191" s="30"/>
       <c r="G191" s="29"/>
-      <c r="H191" s="30" t="b">
-        <v>0</v>
+      <c r="H191" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="I191" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J191" s="29"/>
-      <c r="K191" s="21" t="s">
-        <v>319</v>
+      <c r="K191" s="31" t="s">
+        <v>321</v>
       </c>
       <c r="L191" s="21"/>
     </row>
@@ -8478,7 +8536,7 @@
         <v>10</v>
       </c>
       <c r="B192" s="29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C192" s="29" t="s">
         <v>139</v>
@@ -8504,7 +8562,7 @@
         <v>10</v>
       </c>
       <c r="B193" s="29" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C193" s="29" t="s">
         <v>139</v>
@@ -8525,12 +8583,12 @@
       </c>
       <c r="L193" s="21"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" ht="30">
       <c r="A194" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B194" s="29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C194" s="29" t="s">
         <v>139</v>
@@ -8539,8 +8597,8 @@
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
       <c r="G194" s="29"/>
-      <c r="H194" s="30" t="b">
-        <v>0</v>
+      <c r="H194" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="I194" s="29" t="s">
         <v>14</v>
@@ -8556,7 +8614,7 @@
         <v>10</v>
       </c>
       <c r="B195" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C195" s="29" t="s">
         <v>139</v>
@@ -8566,7 +8624,7 @@
       <c r="F195" s="30"/>
       <c r="G195" s="29"/>
       <c r="H195" s="30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" s="29" t="s">
         <v>14</v>
@@ -8582,17 +8640,17 @@
         <v>10</v>
       </c>
       <c r="B196" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D196" s="29"/>
       <c r="E196" s="30"/>
       <c r="F196" s="30"/>
       <c r="G196" s="29"/>
-      <c r="H196" s="30" t="s">
-        <v>160</v>
+      <c r="H196" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I196" s="29" t="s">
         <v>14</v>
@@ -8608,10 +8666,10 @@
         <v>10</v>
       </c>
       <c r="B197" s="29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D197" s="29"/>
       <c r="E197" s="30"/>
@@ -8629,22 +8687,22 @@
       </c>
       <c r="L197" s="21"/>
     </row>
-    <row r="198" spans="1:12" ht="30">
+    <row r="198" spans="1:12">
       <c r="A198" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B198" s="29" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="30"/>
       <c r="F198" s="30"/>
       <c r="G198" s="29"/>
-      <c r="H198" s="30" t="s">
-        <v>163</v>
+      <c r="H198" s="30" t="b">
+        <v>0</v>
       </c>
       <c r="I198" s="29" t="s">
         <v>14</v>
@@ -8660,20 +8718,20 @@
         <v>10</v>
       </c>
       <c r="B199" s="29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D199" s="29"/>
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="29"/>
-      <c r="H199" s="30">
-        <v>32</v>
+      <c r="H199" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I199" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J199" s="29"/>
       <c r="K199" s="21" t="s">
@@ -8681,12 +8739,12 @@
       </c>
       <c r="L199" s="21"/>
     </row>
-    <row r="200" spans="1:12" ht="30">
+    <row r="200" spans="1:12">
       <c r="A200" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B200" s="29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C200" s="29" t="s">
         <v>159</v>
@@ -8696,23 +8754,23 @@
       <c r="F200" s="30"/>
       <c r="G200" s="29"/>
       <c r="H200" s="30" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="I200" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J200" s="29"/>
       <c r="K200" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L200" s="21"/>
     </row>
-    <row r="201" spans="1:12" ht="75">
+    <row r="201" spans="1:12">
       <c r="A201" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B201" s="29" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C201" s="29" t="s">
         <v>159</v>
@@ -8721,24 +8779,24 @@
       <c r="E201" s="30"/>
       <c r="F201" s="30"/>
       <c r="G201" s="29"/>
-      <c r="H201" s="30" t="s">
-        <v>144</v>
+      <c r="H201" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I201" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J201" s="29"/>
       <c r="K201" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L201" s="21"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" ht="30">
       <c r="A202" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B202" s="29" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C202" s="29" t="s">
         <v>159</v>
@@ -8748,23 +8806,23 @@
       <c r="F202" s="30"/>
       <c r="G202" s="29"/>
       <c r="H202" s="30" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="I202" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J202" s="29"/>
       <c r="K202" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L202" s="21"/>
     </row>
-    <row r="203" spans="1:12" ht="30">
+    <row r="203" spans="1:12">
       <c r="A203" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B203" s="29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C203" s="29" t="s">
         <v>159</v>
@@ -8773,24 +8831,24 @@
       <c r="E203" s="30"/>
       <c r="F203" s="30"/>
       <c r="G203" s="29"/>
-      <c r="H203" s="30" t="s">
-        <v>148</v>
+      <c r="H203" s="30">
+        <v>32</v>
       </c>
       <c r="I203" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J203" s="29"/>
       <c r="K203" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L203" s="21"/>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" ht="30">
       <c r="A204" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B204" s="29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C204" s="29" t="s">
         <v>159</v>
@@ -8799,24 +8857,24 @@
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
       <c r="G204" s="29"/>
-      <c r="H204" s="30">
-        <v>35</v>
+      <c r="H204" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="I204" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J204" s="29"/>
       <c r="K204" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L204" s="21"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" ht="75">
       <c r="A205" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B205" s="29" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C205" s="29" t="s">
         <v>159</v>
@@ -8826,23 +8884,23 @@
       <c r="F205" s="30"/>
       <c r="G205" s="29"/>
       <c r="H205" s="30" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="I205" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J205" s="29"/>
       <c r="K205" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L205" s="21"/>
     </row>
-    <row r="206" spans="1:12" ht="30">
+    <row r="206" spans="1:12">
       <c r="A206" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B206" s="29" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C206" s="29" t="s">
         <v>159</v>
@@ -8852,14 +8910,14 @@
       <c r="F206" s="30"/>
       <c r="G206" s="29"/>
       <c r="H206" s="30" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="I206" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J206" s="29"/>
       <c r="K206" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L206" s="21"/>
     </row>
@@ -8868,7 +8926,7 @@
         <v>10</v>
       </c>
       <c r="B207" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C207" s="29" t="s">
         <v>159</v>
@@ -8878,14 +8936,14 @@
       <c r="F207" s="30"/>
       <c r="G207" s="29"/>
       <c r="H207" s="30" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="I207" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J207" s="29"/>
       <c r="K207" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L207" s="21"/>
     </row>
@@ -8894,7 +8952,7 @@
         <v>10</v>
       </c>
       <c r="B208" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C208" s="29" t="s">
         <v>159</v>
@@ -8903,11 +8961,11 @@
       <c r="E208" s="30"/>
       <c r="F208" s="30"/>
       <c r="G208" s="29"/>
-      <c r="H208" s="30" t="s">
-        <v>177</v>
+      <c r="H208" s="30">
+        <v>35</v>
       </c>
       <c r="I208" s="29" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J208" s="29"/>
       <c r="K208" s="21" t="s">
@@ -8920,7 +8978,7 @@
         <v>10</v>
       </c>
       <c r="B209" s="29" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C209" s="29" t="s">
         <v>159</v>
@@ -8930,23 +8988,23 @@
       <c r="F209" s="30"/>
       <c r="G209" s="29"/>
       <c r="H209" s="30" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I209" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J209" s="29"/>
       <c r="K209" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L209" s="21"/>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" ht="30">
       <c r="A210" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B210" s="29" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C210" s="29" t="s">
         <v>159</v>
@@ -8955,8 +9013,8 @@
       <c r="E210" s="30"/>
       <c r="F210" s="30"/>
       <c r="G210" s="29"/>
-      <c r="H210" s="30" t="b">
-        <v>1</v>
+      <c r="H210" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="I210" s="29" t="s">
         <v>14</v>
@@ -8967,22 +9025,22 @@
       </c>
       <c r="L210" s="21"/>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" ht="30">
       <c r="A211" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B211" s="29" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="30"/>
       <c r="F211" s="30"/>
       <c r="G211" s="29"/>
       <c r="H211" s="30" t="s">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c r="I211" s="29" t="s">
         <v>14</v>
@@ -8998,20 +9056,20 @@
         <v>10</v>
       </c>
       <c r="B212" s="29" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="D212" s="29"/>
       <c r="E212" s="30"/>
       <c r="F212" s="30"/>
       <c r="G212" s="29"/>
-      <c r="H212" s="30" t="b">
-        <v>1</v>
+      <c r="H212" s="30" t="s">
+        <v>177</v>
       </c>
       <c r="I212" s="29" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
       <c r="J212" s="29"/>
       <c r="K212" s="21" t="s">
@@ -9019,29 +9077,29 @@
       </c>
       <c r="L212" s="21"/>
     </row>
-    <row r="213" spans="1:12" ht="30">
+    <row r="213" spans="1:12">
       <c r="A213" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B213" s="29" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="D213" s="29"/>
       <c r="E213" s="30"/>
       <c r="F213" s="30"/>
       <c r="G213" s="29"/>
       <c r="H213" s="30" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="I213" s="29" t="s">
         <v>14</v>
       </c>
       <c r="J213" s="29"/>
       <c r="K213" s="21" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L213" s="21"/>
     </row>
@@ -9050,20 +9108,20 @@
         <v>10</v>
       </c>
       <c r="B214" s="29" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="30"/>
       <c r="F214" s="30"/>
       <c r="G214" s="29"/>
-      <c r="H214" s="30">
-        <v>32</v>
+      <c r="H214" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="I214" s="29" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J214" s="29"/>
       <c r="K214" s="21" t="s">
@@ -9071,12 +9129,12 @@
       </c>
       <c r="L214" s="21"/>
     </row>
-    <row r="215" spans="1:12" s="19" customFormat="1">
+    <row r="215" spans="1:12">
       <c r="A215" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B215" s="29" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C215" s="29" t="s">
         <v>318</v>
@@ -9086,7 +9144,7 @@
       <c r="F215" s="30"/>
       <c r="G215" s="29"/>
       <c r="H215" s="30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I215" s="29" t="s">
         <v>14</v>
@@ -9097,96 +9155,104 @@
       </c>
       <c r="L215" s="21"/>
     </row>
-    <row r="216" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="216" spans="1:12">
       <c r="A216" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B216" s="29" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>182</v>
+        <v>318</v>
       </c>
       <c r="D216" s="29"/>
       <c r="E216" s="30"/>
       <c r="F216" s="30"/>
       <c r="G216" s="29"/>
-      <c r="H216" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I216" s="29"/>
+      <c r="H216" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I216" s="29" t="s">
+        <v>317</v>
+      </c>
       <c r="J216" s="29"/>
       <c r="K216" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L216" s="21"/>
     </row>
-    <row r="217" spans="1:12" s="19" customFormat="1" ht="409.5">
+    <row r="217" spans="1:12" ht="30">
       <c r="A217" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B217" s="30" t="s">
-        <v>184</v>
+      <c r="B217" s="29" t="s">
+        <v>162</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>185</v>
+        <v>318</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="30"/>
       <c r="F217" s="30"/>
       <c r="G217" s="29"/>
       <c r="H217" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I217" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="I217" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="J217" s="29"/>
       <c r="K217" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L217" s="21"/>
     </row>
-    <row r="218" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="218" spans="1:12">
       <c r="A218" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B218" s="29" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="30"/>
       <c r="F218" s="30"/>
       <c r="G218" s="29"/>
-      <c r="H218" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I218" s="29"/>
+      <c r="H218" s="30">
+        <v>32</v>
+      </c>
+      <c r="I218" s="29" t="s">
+        <v>22</v>
+      </c>
       <c r="J218" s="29"/>
       <c r="K218" s="21" t="s">
         <v>319</v>
       </c>
       <c r="L218" s="21"/>
     </row>
-    <row r="219" spans="1:12" s="19" customFormat="1" ht="30">
+    <row r="219" spans="1:12" s="19" customFormat="1">
       <c r="A219" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B219" s="29" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="30"/>
       <c r="F219" s="30"/>
       <c r="G219" s="29"/>
       <c r="H219" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="I219" s="29"/>
+        <v>316</v>
+      </c>
+      <c r="I219" s="29" t="s">
+        <v>14</v>
+      </c>
       <c r="J219" s="29"/>
       <c r="K219" s="21" t="s">
         <v>319</v>
@@ -9198,10 +9264,10 @@
         <v>10</v>
       </c>
       <c r="B220" s="29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="30"/>
@@ -9217,172 +9283,152 @@
       </c>
       <c r="L220" s="21"/>
     </row>
-    <row r="221" spans="1:12" s="19" customFormat="1">
-      <c r="A221" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B221" s="23" t="s">
+    <row r="221" spans="1:12" s="19" customFormat="1" ht="409.5">
+      <c r="A221" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C221" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D221" s="29"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="29"/>
+      <c r="H221" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I221" s="29"/>
+      <c r="J221" s="29"/>
+      <c r="K221" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L221" s="21"/>
+    </row>
+    <row r="222" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A222" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C222" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D222" s="29"/>
+      <c r="E222" s="30"/>
+      <c r="F222" s="30"/>
+      <c r="G222" s="29"/>
+      <c r="H222" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I222" s="29"/>
+      <c r="J222" s="29"/>
+      <c r="K222" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L222" s="21"/>
+    </row>
+    <row r="223" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A223" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C223" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D223" s="29"/>
+      <c r="E223" s="30"/>
+      <c r="F223" s="30"/>
+      <c r="G223" s="29"/>
+      <c r="H223" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I223" s="29"/>
+      <c r="J223" s="29"/>
+      <c r="K223" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L223" s="21"/>
+    </row>
+    <row r="224" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A224" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C224" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D224" s="29"/>
+      <c r="E224" s="30"/>
+      <c r="F224" s="30"/>
+      <c r="G224" s="29"/>
+      <c r="H224" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="I224" s="29"/>
+      <c r="J224" s="29"/>
+      <c r="K224" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="L224" s="21"/>
+    </row>
+    <row r="225" spans="1:12" s="19" customFormat="1">
+      <c r="A225" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="C221" s="23" t="s">
+      <c r="C225" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="D221" s="23" t="s">
+      <c r="D225" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="G221" s="23"/>
-      <c r="H221" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="I221" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J221" s="23"/>
-      <c r="K221" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="L221" s="23"/>
-    </row>
-    <row r="222" spans="1:12" s="19" customFormat="1">
-      <c r="A222" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B222" s="23" t="s">
-        <v>329</v>
-      </c>
-      <c r="C222" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E222" s="24"/>
-      <c r="F222" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="G222" s="23"/>
-      <c r="H222" s="24">
-        <v>5</v>
-      </c>
-      <c r="I222" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J222" s="23"/>
-      <c r="K222" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L222" s="23"/>
-    </row>
-    <row r="223" spans="1:12" s="19" customFormat="1">
-      <c r="A223" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B223" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C223" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E223" s="24"/>
-      <c r="F223" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="G223" s="23"/>
-      <c r="H223" s="24">
-        <v>60</v>
-      </c>
-      <c r="I223" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J223" s="23"/>
-      <c r="K223" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L223" s="23"/>
-    </row>
-    <row r="224" spans="1:12" s="19" customFormat="1">
-      <c r="A224" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B224" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C224" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E224" s="24"/>
-      <c r="F224" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="G224" s="23"/>
-      <c r="H224" s="24">
-        <v>5</v>
-      </c>
-      <c r="I224" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="J224" s="23"/>
-      <c r="K224" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="L224" s="23"/>
-    </row>
-    <row r="225" spans="1:12">
-      <c r="A225" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B225" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="C225" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="23"/>
       <c r="E225" s="24"/>
       <c r="F225" s="24" t="s">
         <v>272</v>
       </c>
       <c r="G225" s="23"/>
-      <c r="H225" s="24">
-        <v>1994</v>
+      <c r="H225" s="24" t="s">
+        <v>325</v>
       </c>
       <c r="I225" s="33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J225" s="23"/>
       <c r="K225" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L225" s="23"/>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" s="19" customFormat="1">
       <c r="A226" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="C226" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D226" s="23"/>
+      <c r="D226" s="23" t="s">
+        <v>324</v>
+      </c>
       <c r="E226" s="24"/>
       <c r="F226" s="24" t="s">
         <v>272</v>
       </c>
       <c r="G226" s="23"/>
       <c r="H226" s="24">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I226" s="33" t="s">
         <v>22</v>
@@ -9393,24 +9439,26 @@
       </c>
       <c r="L226" s="23"/>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" s="19" customFormat="1">
       <c r="A227" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B227" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C227" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D227" s="23"/>
+      <c r="D227" s="23" t="s">
+        <v>324</v>
+      </c>
       <c r="E227" s="24"/>
       <c r="F227" s="24" t="s">
         <v>272</v>
       </c>
       <c r="G227" s="23"/>
       <c r="H227" s="24">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I227" s="33" t="s">
         <v>22</v>
@@ -9421,24 +9469,26 @@
       </c>
       <c r="L227" s="23"/>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" s="19" customFormat="1">
       <c r="A228" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B228" s="23" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="C228" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D228" s="23"/>
+      <c r="D228" s="23" t="s">
+        <v>324</v>
+      </c>
       <c r="E228" s="24"/>
       <c r="F228" s="24" t="s">
         <v>272</v>
       </c>
       <c r="G228" s="23"/>
       <c r="H228" s="24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I228" s="33" t="s">
         <v>22</v>
@@ -9454,7 +9504,7 @@
         <v>10</v>
       </c>
       <c r="B229" s="23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C229" s="33" t="s">
         <v>12</v>
@@ -9466,7 +9516,7 @@
       </c>
       <c r="G229" s="23"/>
       <c r="H229" s="24">
-        <v>6</v>
+        <v>1994</v>
       </c>
       <c r="I229" s="33" t="s">
         <v>22</v>
@@ -9482,7 +9532,7 @@
         <v>10</v>
       </c>
       <c r="B230" s="23" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="C230" s="33" t="s">
         <v>12</v>
@@ -9493,8 +9543,8 @@
         <v>272</v>
       </c>
       <c r="G230" s="23"/>
-      <c r="H230" s="24" t="s">
-        <v>331</v>
+      <c r="H230" s="24">
+        <v>10</v>
       </c>
       <c r="I230" s="33" t="s">
         <v>22</v>
@@ -9505,237 +9555,349 @@
       </c>
       <c r="L230" s="23"/>
     </row>
-    <row r="231" spans="1:12" ht="30">
+    <row r="231" spans="1:12">
       <c r="A231" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B231" s="23" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D231" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="E231" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="F231" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="23"/>
+      <c r="E231" s="24"/>
+      <c r="F231" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G231" s="21">
-        <v>2048</v>
-      </c>
-      <c r="H231" s="25" t="s">
-        <v>336</v>
+      <c r="G231" s="23"/>
+      <c r="H231" s="24">
+        <v>5</v>
       </c>
       <c r="I231" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J231" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="J231" s="23"/>
       <c r="K231" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="L231" s="21"/>
-    </row>
-    <row r="232" spans="1:12" ht="60">
+        <v>319</v>
+      </c>
+      <c r="L231" s="23"/>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B232" s="23" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D232" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="E232" s="25" t="s">
-        <v>341</v>
-      </c>
-      <c r="F232" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232" s="23"/>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G232" s="21">
-        <v>256</v>
-      </c>
-      <c r="H232" s="25" t="s">
-        <v>338</v>
+      <c r="G232" s="23"/>
+      <c r="H232" s="24">
+        <v>3</v>
       </c>
       <c r="I232" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J232" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="J232" s="23"/>
       <c r="K232" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="L232" s="21"/>
-    </row>
-    <row r="233" spans="1:12" ht="60">
+        <v>319</v>
+      </c>
+      <c r="L232" s="23"/>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B233" s="23" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="D233" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="E233" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="F233" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="23"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G233" s="21">
-        <v>256</v>
-      </c>
-      <c r="H233" s="25" t="s">
-        <v>338</v>
+      <c r="G233" s="23"/>
+      <c r="H233" s="24">
+        <v>6</v>
       </c>
       <c r="I233" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J233" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="J233" s="23"/>
       <c r="K233" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="L233" s="21"/>
+        <v>319</v>
+      </c>
+      <c r="L233" s="23"/>
     </row>
     <row r="234" spans="1:12">
       <c r="A234" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B234" s="23" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="D234" s="21"/>
-      <c r="E234" s="25"/>
-      <c r="F234" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="23"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G234" s="21"/>
-      <c r="H234" s="25" t="s">
-        <v>345</v>
+      <c r="G234" s="23"/>
+      <c r="H234" s="24" t="s">
+        <v>331</v>
       </c>
       <c r="I234" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J234" s="21"/>
+        <v>22</v>
+      </c>
+      <c r="J234" s="23"/>
       <c r="K234" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="L234" s="21"/>
-    </row>
-    <row r="235" spans="1:12">
+      <c r="L234" s="23"/>
+    </row>
+    <row r="235" spans="1:12" ht="30">
       <c r="A235" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C235" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="E235" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="F235" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G235" s="21"/>
-      <c r="H235" s="21" t="s">
-        <v>392</v>
+      <c r="B235" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C235" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E235" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="F235" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G235" s="21">
+        <v>2048</v>
+      </c>
+      <c r="H235" s="25" t="s">
+        <v>336</v>
       </c>
       <c r="I235" s="33" t="s">
-        <v>400</v>
+        <v>335</v>
       </c>
       <c r="J235" s="21"/>
       <c r="K235" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L235" s="21"/>
     </row>
-    <row r="236" spans="1:12" ht="90">
+    <row r="236" spans="1:12" ht="60">
       <c r="A236" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B236" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="C236" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D236" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="E236" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="F236" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G236" s="21"/>
-      <c r="H236" s="35" t="s">
-        <v>398</v>
+      <c r="B236" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C236" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D236" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E236" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F236" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G236" s="21">
+        <v>256</v>
+      </c>
+      <c r="H236" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="I236" s="33" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="J236" s="21"/>
       <c r="K236" s="23" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L236" s="21"/>
     </row>
-    <row r="237" spans="1:12" ht="30">
+    <row r="237" spans="1:12" ht="60">
       <c r="A237" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B237" s="34" t="s">
+      <c r="B237" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C237" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D237" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="E237" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F237" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G237" s="21">
+        <v>256</v>
+      </c>
+      <c r="H237" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="I237" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="J237" s="21"/>
+      <c r="K237" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="L237" s="21"/>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C238" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="D238" s="21"/>
+      <c r="E238" s="25"/>
+      <c r="F238" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G238" s="21"/>
+      <c r="H238" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="I238" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="21"/>
+      <c r="K238" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L238" s="21"/>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C237" s="29" t="s">
+      <c r="C239" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D237" s="36" t="s">
+      <c r="D239" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="E239" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F239" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="I239" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="J239" s="21"/>
+      <c r="K239" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L239" s="21"/>
+    </row>
+    <row r="240" spans="1:12" ht="90">
+      <c r="A240" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C240" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D240" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="E237" s="35" t="s">
+      <c r="E240" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="F240" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G240" s="21"/>
+      <c r="H240" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="I240" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="J240" s="21"/>
+      <c r="K240" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="L240" s="21"/>
+    </row>
+    <row r="241" spans="1:12" ht="30">
+      <c r="A241" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C241" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D241" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="E241" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="F237" s="35" t="s">
+      <c r="F241" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="G237" s="21"/>
-      <c r="H237" s="35"/>
-      <c r="I237" s="33" t="s">
+      <c r="G241" s="21"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="J237" s="21"/>
-      <c r="K237" s="21"/>
-      <c r="L237" s="21"/>
+      <c r="J241" s="21"/>
+      <c r="K241" s="21"/>
+      <c r="L241" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L234">
+  <autoFilter ref="A1:L238">
     <filterColumn colId="1"/>
     <filterColumn colId="10"/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H31" r:id="rId1"/>
-    <hyperlink ref="D236" r:id="rId2" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
-    <hyperlink ref="D237" r:id="rId3" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
+    <hyperlink ref="H35" r:id="rId1"/>
+    <hyperlink ref="D240" r:id="rId2" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
+    <hyperlink ref="D241" r:id="rId3" tooltip="BESTX-19" display="https://manage.softsolutions.it:8090/browse/BESTX-19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
